--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matwi\Projects\repo\fish_passage_elk_2022_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CF23A-71BA-4858-AE44-F665B22DB7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27835A17-EBD7-4A19-99FA-8D96DA710186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="110">
   <si>
     <t xml:space="preserve">Mean Depth </t>
   </si>
@@ -391,6 +391,24 @@
   </si>
   <si>
     <t>Waypoint</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>Surveyor 3</t>
+  </si>
+  <si>
+    <t>not joined at top</t>
+  </si>
+  <si>
+    <t>jump to SC</t>
+  </si>
+  <si>
+    <t>side is main</t>
+  </si>
+  <si>
+    <t>channels join at top</t>
   </si>
 </sst>
 </file>
@@ -1125,36 +1143,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,17 +1214,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,30 +1561,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC9D326-4609-4EA2-B5AA-7FE5A82D090A}">
-  <dimension ref="A1:AZ103"/>
+  <dimension ref="A1:BA127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="AH120" sqref="AH120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="41" max="41" width="10.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="1"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1575,69 +1593,69 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="67" t="s">
+      <c r="F3" s="89"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="67" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="69"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="72" t="s">
+      <c r="W3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="67" t="s">
+      <c r="X3" s="67"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="67" t="s">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="77" t="s">
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="67" t="s">
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="69"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="63"/>
       <c r="AM3" t="s">
         <v>51</v>
       </c>
@@ -1663,30 +1681,33 @@
         <v>55</v>
       </c>
       <c r="AU3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV3" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="66" t="s">
+      <c r="AW3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
-    <row r="4" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1696,11 +1717,11 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1725,18 +1746,18 @@
       <c r="S4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="74"/>
+      <c r="U4" s="68"/>
       <c r="V4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
       <c r="Z4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1758,9 +1779,9 @@
       <c r="AF4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="82"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="76"/>
       <c r="AJ4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1770,24 +1791,24 @@
       <c r="AL4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>58</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>59</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>60</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>61</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+    <row r="5" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
       <c r="B5" s="53" t="s">
         <v>32</v>
       </c>
@@ -1809,11 +1830,11 @@
       <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="86"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="80"/>
       <c r="L5" s="15" t="s">
         <v>33</v>
       </c>
@@ -1836,10 +1857,10 @@
       <c r="S5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="86"/>
+      <c r="U5" s="80"/>
       <c r="V5" s="20" t="s">
         <v>38</v>
       </c>
@@ -1861,17 +1882,17 @@
       <c r="AF5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="79"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="22"/>
       <c r="AL5" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
         <v>98</v>
       </c>
       <c r="B6" s="26">
@@ -1984,7 +2005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>99</v>
       </c>
@@ -2093,7 +2114,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>100</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>101</v>
       </c>
@@ -2321,7 +2342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>102</v>
       </c>
@@ -2435,7 +2456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>103</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>104</v>
       </c>
@@ -2657,7 +2678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>105</v>
       </c>
@@ -2768,7 +2789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>106</v>
       </c>
@@ -2879,7 +2900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>107</v>
       </c>
@@ -2990,7 +3011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>108</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>109</v>
       </c>
@@ -3216,7 +3237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>110</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>111</v>
       </c>
@@ -3446,7 +3467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>112</v>
       </c>
@@ -3568,7 +3589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>114</v>
       </c>
@@ -3676,11 +3697,11 @@
       <c r="AT21" t="s">
         <v>85</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>115</v>
       </c>
@@ -3790,11 +3811,11 @@
       <c r="AT22" t="s">
         <v>85</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>116</v>
       </c>
@@ -3904,11 +3925,11 @@
       <c r="AT23" t="s">
         <v>85</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>117</v>
       </c>
@@ -4024,11 +4045,11 @@
       <c r="AT24" t="s">
         <v>85</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>118</v>
       </c>
@@ -4138,11 +4159,11 @@
       <c r="AT25" t="s">
         <v>85</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AV25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>119</v>
       </c>
@@ -4250,11 +4271,11 @@
       <c r="AT26" t="s">
         <v>85</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>120</v>
       </c>
@@ -4364,11 +4385,11 @@
       <c r="AT27" t="s">
         <v>85</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>121</v>
       </c>
@@ -4478,11 +4499,11 @@
       <c r="AT28" t="s">
         <v>85</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AV28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>122</v>
       </c>
@@ -4592,11 +4613,11 @@
       <c r="AT29" t="s">
         <v>85</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>123</v>
       </c>
@@ -4712,11 +4733,11 @@
       <c r="AT30" t="s">
         <v>85</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>124</v>
       </c>
@@ -4840,11 +4861,11 @@
       <c r="AT31" t="s">
         <v>85</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>125</v>
       </c>
@@ -4954,11 +4975,11 @@
       <c r="AT32" t="s">
         <v>85</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>126</v>
       </c>
@@ -5078,11 +5099,11 @@
       <c r="AT33" t="s">
         <v>85</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>127</v>
       </c>
@@ -5196,11 +5217,11 @@
       <c r="AT34" t="s">
         <v>85</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>128</v>
       </c>
@@ -5316,11 +5337,11 @@
       <c r="AT35" t="s">
         <v>85</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>129</v>
       </c>
@@ -5430,11 +5451,11 @@
       <c r="AT36" t="s">
         <v>85</v>
       </c>
-      <c r="AU36" t="s">
+      <c r="AV36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>130</v>
       </c>
@@ -5544,11 +5565,11 @@
       <c r="AT37" t="s">
         <v>85</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AV37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>131</v>
       </c>
@@ -5664,11 +5685,11 @@
       <c r="AT38" t="s">
         <v>85</v>
       </c>
-      <c r="AU38" t="s">
+      <c r="AV38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>132</v>
       </c>
@@ -5776,11 +5797,11 @@
       <c r="AT39" t="s">
         <v>85</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AV39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>133</v>
       </c>
@@ -5904,11 +5925,11 @@
       <c r="AT40" t="s">
         <v>85</v>
       </c>
-      <c r="AU40" t="s">
+      <c r="AV40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>134</v>
       </c>
@@ -6018,11 +6039,11 @@
       <c r="AT41" t="s">
         <v>85</v>
       </c>
-      <c r="AU41" t="s">
+      <c r="AV41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>135</v>
       </c>
@@ -6132,11 +6153,11 @@
       <c r="AT42" t="s">
         <v>85</v>
       </c>
-      <c r="AU42" t="s">
+      <c r="AV42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>136</v>
       </c>
@@ -6244,11 +6265,11 @@
       <c r="AT43" t="s">
         <v>85</v>
       </c>
-      <c r="AU43" t="s">
+      <c r="AV43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>137</v>
       </c>
@@ -6369,11 +6390,11 @@
       <c r="AT44" t="s">
         <v>85</v>
       </c>
-      <c r="AU44" t="s">
+      <c r="AV44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>140</v>
       </c>
@@ -6487,7 +6508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>141</v>
       </c>
@@ -6598,7 +6619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>142</v>
       </c>
@@ -6709,7 +6730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>143</v>
       </c>
@@ -12154,7 +12175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <v>193</v>
       </c>
@@ -12259,7 +12280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>194</v>
       </c>
@@ -12366,7 +12387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>195</v>
       </c>
@@ -12477,7 +12498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>196</v>
       </c>
@@ -12586,7 +12607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>197</v>
       </c>
@@ -12691,7 +12712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>198</v>
       </c>
@@ -12796,7 +12817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>199</v>
       </c>
@@ -12905,9 +12926,2772 @@
         <v>85</v>
       </c>
     </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A104" s="25">
+        <v>203</v>
+      </c>
+      <c r="B104" s="26">
+        <v>3</v>
+      </c>
+      <c r="C104" s="27">
+        <v>0</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" s="28">
+        <v>1</v>
+      </c>
+      <c r="F104" s="29">
+        <v>7</v>
+      </c>
+      <c r="G104" s="36">
+        <v>7</v>
+      </c>
+      <c r="H104" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I104" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J104" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="K104" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L104" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="M104" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="N104" s="32"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S104" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T104" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U104" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V104" s="26">
+        <v>13</v>
+      </c>
+      <c r="W104" s="28">
+        <v>2</v>
+      </c>
+      <c r="X104" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y104" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA104" s="37">
+        <v>10</v>
+      </c>
+      <c r="AB104" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC104" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD104" s="26"/>
+      <c r="AE104" s="37"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="26"/>
+      <c r="AH104" s="28"/>
+      <c r="AI104" s="41"/>
+      <c r="AJ104" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK104" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL104" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO104" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP104" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS104" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT104" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
+        <v>204</v>
+      </c>
+      <c r="B105" s="26">
+        <v>3</v>
+      </c>
+      <c r="C105" s="27">
+        <v>7</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" s="28">
+        <v>1</v>
+      </c>
+      <c r="F105" s="29">
+        <v>9</v>
+      </c>
+      <c r="G105" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="H105" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I105" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="J105" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K105" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L105" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="M105" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N105" s="32"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S105" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T105" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U105" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V105" s="26">
+        <v>3</v>
+      </c>
+      <c r="W105" s="28">
+        <v>1</v>
+      </c>
+      <c r="X105" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y105" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA105" s="37">
+        <v>2</v>
+      </c>
+      <c r="AB105" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC105" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD105" s="26"/>
+      <c r="AE105" s="37"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="26"/>
+      <c r="AH105" s="28"/>
+      <c r="AI105" s="41"/>
+      <c r="AJ105" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK105" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL105" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO105" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP105" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>205</v>
+      </c>
+      <c r="B106" s="26">
+        <v>3</v>
+      </c>
+      <c r="C106" s="27">
+        <v>16</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" s="28">
+        <v>1</v>
+      </c>
+      <c r="F106" s="29">
+        <v>8</v>
+      </c>
+      <c r="G106" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I106" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="J106" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="K106" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="L106" s="25">
+        <v>7.1</v>
+      </c>
+      <c r="M106" s="37">
+        <v>6.6</v>
+      </c>
+      <c r="N106" s="32"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S106" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T106" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U106" s="38"/>
+      <c r="V106" s="26">
+        <v>5</v>
+      </c>
+      <c r="W106" s="28">
+        <v>1</v>
+      </c>
+      <c r="X106" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA106" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB106" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC106" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD106" s="26"/>
+      <c r="AE106" s="37"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="26"/>
+      <c r="AH106" s="28"/>
+      <c r="AI106" s="41"/>
+      <c r="AJ106" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK106" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL106" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO106" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP106" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS106" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT106" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
+        <v>206</v>
+      </c>
+      <c r="B107" s="26">
+        <v>3</v>
+      </c>
+      <c r="C107" s="27">
+        <v>24</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="28">
+        <v>1</v>
+      </c>
+      <c r="F107" s="29">
+        <v>15</v>
+      </c>
+      <c r="G107" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="H107" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I107" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="J107" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="K107" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L107" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="M107" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N107" s="32"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S107" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T107" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U107" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V107" s="26">
+        <v>11</v>
+      </c>
+      <c r="W107" s="28">
+        <v>7</v>
+      </c>
+      <c r="X107" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y107" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA107" s="37">
+        <v>10</v>
+      </c>
+      <c r="AB107" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC107" s="41">
+        <v>3</v>
+      </c>
+      <c r="AD107" s="26"/>
+      <c r="AE107" s="37"/>
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="26"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="41"/>
+      <c r="AJ107" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK107" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL107" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO107" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP107" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR107" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS107" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT107" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>207</v>
+      </c>
+      <c r="B108" s="26">
+        <v>3</v>
+      </c>
+      <c r="C108" s="27">
+        <v>39</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="28">
+        <v>1</v>
+      </c>
+      <c r="F108" s="29">
+        <v>19</v>
+      </c>
+      <c r="G108" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="H108" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I108" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J108" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K108" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L108" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="M108" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="N108" s="32"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S108" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T108" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U108" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V108" s="26">
+        <v>10</v>
+      </c>
+      <c r="W108" s="28">
+        <v>4</v>
+      </c>
+      <c r="X108" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y108" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA108" s="37">
+        <v>2</v>
+      </c>
+      <c r="AB108" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC108" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD108" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE108" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF108" s="36">
+        <v>100</v>
+      </c>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="28"/>
+      <c r="AI108" s="41"/>
+      <c r="AJ108" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK108" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL108" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO108" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP108" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS108" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT108" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <v>208</v>
+      </c>
+      <c r="B109" s="26">
+        <v>3</v>
+      </c>
+      <c r="C109" s="27">
+        <v>58</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="28">
+        <v>1</v>
+      </c>
+      <c r="F109" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="G109" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I109" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J109" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K109" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L109" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="M109" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N109" s="32"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T109" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U109" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V109" s="26">
+        <v>1</v>
+      </c>
+      <c r="W109" s="28">
+        <v>1</v>
+      </c>
+      <c r="X109" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA109" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB109" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC109" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD109" s="26"/>
+      <c r="AE109" s="37"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="26"/>
+      <c r="AH109" s="28"/>
+      <c r="AI109" s="41"/>
+      <c r="AJ109" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK109" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL109" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO109" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP109" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A110" s="25">
+        <v>209</v>
+      </c>
+      <c r="B110" s="26">
+        <v>3</v>
+      </c>
+      <c r="C110" s="27">
+        <v>60.5</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="28">
+        <v>1</v>
+      </c>
+      <c r="F110" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="G110" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="H110" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I110" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J110" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="K110" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L110" s="25">
+        <v>5.7</v>
+      </c>
+      <c r="M110" s="37">
+        <v>4</v>
+      </c>
+      <c r="N110" s="32"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S110" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T110" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U110" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V110" s="26">
+        <v>3</v>
+      </c>
+      <c r="W110" s="28">
+        <v>2</v>
+      </c>
+      <c r="X110" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA110" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB110" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC110" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD110" s="26"/>
+      <c r="AE110" s="37"/>
+      <c r="AF110" s="36"/>
+      <c r="AG110" s="26"/>
+      <c r="AH110" s="28"/>
+      <c r="AI110" s="41"/>
+      <c r="AJ110" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK110" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL110" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO110" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP110" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS110" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT110" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
+        <v>210</v>
+      </c>
+      <c r="B111" s="26">
+        <v>3</v>
+      </c>
+      <c r="C111" s="27">
+        <v>63</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="28">
+        <v>1</v>
+      </c>
+      <c r="F111" s="29">
+        <v>6</v>
+      </c>
+      <c r="G111" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I111" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J111" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K111" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L111" s="25">
+        <v>5.7</v>
+      </c>
+      <c r="M111" s="37">
+        <v>2.9</v>
+      </c>
+      <c r="N111" s="32"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="28"/>
+      <c r="Q111" s="36"/>
+      <c r="R111" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S111" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T111" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U111" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V111" s="26">
+        <v>3</v>
+      </c>
+      <c r="W111" s="28">
+        <v>2</v>
+      </c>
+      <c r="X111" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA111" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB111" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC111" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD111" s="26"/>
+      <c r="AE111" s="37"/>
+      <c r="AF111" s="36"/>
+      <c r="AG111" s="26"/>
+      <c r="AH111" s="28"/>
+      <c r="AI111" s="41"/>
+      <c r="AJ111" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK111" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL111" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO111" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP111" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS111" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT111" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A112" s="25">
+        <v>211</v>
+      </c>
+      <c r="B112" s="26">
+        <v>3</v>
+      </c>
+      <c r="C112" s="27">
+        <v>66</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="28">
+        <v>1</v>
+      </c>
+      <c r="F112" s="29">
+        <v>2</v>
+      </c>
+      <c r="G112" s="36">
+        <v>3</v>
+      </c>
+      <c r="H112" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="I112" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J112" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K112" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="L112" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="M112" s="37">
+        <v>2.8</v>
+      </c>
+      <c r="N112" s="32"/>
+      <c r="O112" s="33"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="36"/>
+      <c r="R112" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S112" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T112" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U112" s="38"/>
+      <c r="V112" s="26">
+        <v>3</v>
+      </c>
+      <c r="W112" s="28">
+        <v>2</v>
+      </c>
+      <c r="X112" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA112" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB112" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC112" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD112" s="26"/>
+      <c r="AE112" s="37"/>
+      <c r="AF112" s="36"/>
+      <c r="AG112" s="26"/>
+      <c r="AH112" s="28"/>
+      <c r="AI112" s="41"/>
+      <c r="AJ112" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK112" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL112" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO112" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP112" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
+        <v>212</v>
+      </c>
+      <c r="B113" s="26">
+        <v>3</v>
+      </c>
+      <c r="C113" s="27">
+        <v>68</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="28">
+        <v>1</v>
+      </c>
+      <c r="F113" s="29">
+        <v>10</v>
+      </c>
+      <c r="G113" s="36">
+        <v>0</v>
+      </c>
+      <c r="H113" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="I113" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="J113" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L113" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="M113" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="N113" s="32"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="28"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S113" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="T113" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U113" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V113" s="26">
+        <v>7</v>
+      </c>
+      <c r="W113" s="28">
+        <v>4</v>
+      </c>
+      <c r="X113" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y113" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA113" s="37">
+        <v>2</v>
+      </c>
+      <c r="AB113" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC113" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD113" s="26"/>
+      <c r="AE113" s="37"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="26"/>
+      <c r="AH113" s="28"/>
+      <c r="AI113" s="41"/>
+      <c r="AJ113" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK113" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL113" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO113" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP113" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS113" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT113" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
+        <v>213</v>
+      </c>
+      <c r="B114" s="26">
+        <v>3</v>
+      </c>
+      <c r="C114" s="27">
+        <v>78</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="28">
+        <v>1</v>
+      </c>
+      <c r="F114" s="29">
+        <v>7</v>
+      </c>
+      <c r="G114" s="36">
+        <v>9</v>
+      </c>
+      <c r="H114" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I114" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="J114" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K114" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="L114" s="25">
+        <v>10.5</v>
+      </c>
+      <c r="M114" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="N114" s="32"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="28"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S114" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T114" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U114" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V114" s="26">
+        <v>5</v>
+      </c>
+      <c r="W114" s="28">
+        <v>3</v>
+      </c>
+      <c r="X114" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y114" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA114" s="37">
+        <v>5</v>
+      </c>
+      <c r="AB114" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC114" s="41">
+        <v>3</v>
+      </c>
+      <c r="AD114" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE114" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF114" s="36">
+        <v>15</v>
+      </c>
+      <c r="AG114" s="26"/>
+      <c r="AH114" s="28"/>
+      <c r="AI114" s="41"/>
+      <c r="AJ114" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK114" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL114" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO114" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP114" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR114" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS114" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT114" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A115" s="25">
+        <v>213</v>
+      </c>
+      <c r="B115" s="26">
+        <v>3</v>
+      </c>
+      <c r="C115" s="27">
+        <v>78</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="28">
+        <v>3</v>
+      </c>
+      <c r="F115" s="29">
+        <v>5</v>
+      </c>
+      <c r="G115" s="36">
+        <v>1</v>
+      </c>
+      <c r="H115" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I115" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="J115" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K115" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L115" s="25">
+        <v>10.5</v>
+      </c>
+      <c r="M115" s="37">
+        <v>3.9</v>
+      </c>
+      <c r="N115" s="32"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="28"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S115" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T115" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U115" s="38"/>
+      <c r="V115" s="26">
+        <v>8</v>
+      </c>
+      <c r="W115" s="28">
+        <v>5</v>
+      </c>
+      <c r="X115" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y115" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA115" s="37">
+        <v>2</v>
+      </c>
+      <c r="AB115" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC115" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD115" s="26"/>
+      <c r="AE115" s="37"/>
+      <c r="AF115" s="36"/>
+      <c r="AG115" s="26"/>
+      <c r="AH115" s="28"/>
+      <c r="AI115" s="41"/>
+      <c r="AJ115" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK115" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL115" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO115" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP115" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A116" s="25">
+        <v>214</v>
+      </c>
+      <c r="B116" s="26">
+        <v>3</v>
+      </c>
+      <c r="C116" s="27">
+        <v>85</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" s="28">
+        <v>1</v>
+      </c>
+      <c r="F116" s="29">
+        <v>10</v>
+      </c>
+      <c r="G116" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H116" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I116" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J116" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K116" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L116" s="25">
+        <v>7.8</v>
+      </c>
+      <c r="M116" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="N116" s="32"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="28"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S116" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T116" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U116" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V116" s="26">
+        <v>6</v>
+      </c>
+      <c r="W116" s="28">
+        <v>5</v>
+      </c>
+      <c r="X116" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA116" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB116" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC116" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD116" s="26"/>
+      <c r="AE116" s="37"/>
+      <c r="AF116" s="36"/>
+      <c r="AG116" s="26"/>
+      <c r="AH116" s="28"/>
+      <c r="AI116" s="41"/>
+      <c r="AJ116" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK116" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL116" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO116" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP116" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT116" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A117" s="25">
+        <v>215</v>
+      </c>
+      <c r="B117" s="26">
+        <v>3</v>
+      </c>
+      <c r="C117" s="27">
+        <v>95</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="28">
+        <v>1</v>
+      </c>
+      <c r="F117" s="29">
+        <v>8</v>
+      </c>
+      <c r="G117" s="36">
+        <v>5</v>
+      </c>
+      <c r="H117" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="I117" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="J117" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="K117" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="L117" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="M117" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N117" s="32"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="36"/>
+      <c r="R117" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S117" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="T117" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U117" s="38"/>
+      <c r="V117" s="26">
+        <v>2</v>
+      </c>
+      <c r="W117" s="28">
+        <v>2</v>
+      </c>
+      <c r="X117" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA117" s="37">
+        <v>20</v>
+      </c>
+      <c r="AB117" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC117" s="41">
+        <v>15</v>
+      </c>
+      <c r="AD117" s="26"/>
+      <c r="AE117" s="37"/>
+      <c r="AF117" s="36"/>
+      <c r="AG117" s="26"/>
+      <c r="AH117" s="28"/>
+      <c r="AI117" s="41"/>
+      <c r="AJ117" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK117" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL117" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO117" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP117" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A118" s="25">
+        <v>216</v>
+      </c>
+      <c r="B118" s="26">
+        <v>3</v>
+      </c>
+      <c r="C118" s="27">
+        <v>103</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="28">
+        <v>1</v>
+      </c>
+      <c r="F118" s="29">
+        <v>11</v>
+      </c>
+      <c r="G118" s="36">
+        <v>0</v>
+      </c>
+      <c r="H118" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="I118" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="J118" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="K118" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="L118" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="M118" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="N118" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O118" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="P118" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="Q118" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R118" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S118" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="T118" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U118" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V118" s="26">
+        <v>5</v>
+      </c>
+      <c r="W118" s="28">
+        <v>3</v>
+      </c>
+      <c r="X118" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y118" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA118" s="37">
+        <v>40</v>
+      </c>
+      <c r="AB118" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC118" s="41">
+        <v>20</v>
+      </c>
+      <c r="AD118" s="26"/>
+      <c r="AE118" s="37"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="26"/>
+      <c r="AH118" s="28"/>
+      <c r="AI118" s="41"/>
+      <c r="AJ118" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK118" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL118" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO118" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP118" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A119" s="25">
+        <v>217</v>
+      </c>
+      <c r="B119" s="26">
+        <v>3</v>
+      </c>
+      <c r="C119" s="27">
+        <v>114</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" s="28">
+        <v>1</v>
+      </c>
+      <c r="F119" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="G119" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H119" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I119" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="J119" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="K119" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="L119" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="M119" s="37">
+        <v>5.6</v>
+      </c>
+      <c r="N119" s="32"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="36"/>
+      <c r="R119" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S119" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="T119" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U119" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V119" s="26">
+        <v>4</v>
+      </c>
+      <c r="W119" s="28">
+        <v>2</v>
+      </c>
+      <c r="X119" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y119" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA119" s="37">
+        <v>5</v>
+      </c>
+      <c r="AB119" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC119" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD119" s="26"/>
+      <c r="AE119" s="37"/>
+      <c r="AF119" s="36"/>
+      <c r="AG119" s="26"/>
+      <c r="AH119" s="28"/>
+      <c r="AI119" s="41"/>
+      <c r="AJ119" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK119" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL119" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO119" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP119" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A120" s="25">
+        <v>218</v>
+      </c>
+      <c r="B120" s="26">
+        <v>3</v>
+      </c>
+      <c r="C120" s="27">
+        <v>122.5</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="28">
+        <v>1</v>
+      </c>
+      <c r="F120" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="G120" s="36">
+        <v>0</v>
+      </c>
+      <c r="H120" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I120" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J120" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="K120" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="L120" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="M120" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N120" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="O120" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="P120" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q120" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R120" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="S120" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T120" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U120" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V120" s="26">
+        <v>3</v>
+      </c>
+      <c r="W120" s="28">
+        <v>1</v>
+      </c>
+      <c r="X120" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA120" s="37">
+        <v>40</v>
+      </c>
+      <c r="AB120" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC120" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD120" s="26"/>
+      <c r="AE120" s="37"/>
+      <c r="AF120" s="36"/>
+      <c r="AG120" s="26"/>
+      <c r="AH120" s="28"/>
+      <c r="AI120" s="41"/>
+      <c r="AJ120" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK120" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL120" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO120" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP120" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A121" s="25">
+        <v>219</v>
+      </c>
+      <c r="B121" s="26">
+        <v>3</v>
+      </c>
+      <c r="C121" s="27">
+        <v>128</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" s="28">
+        <v>1</v>
+      </c>
+      <c r="F121" s="29">
+        <v>13</v>
+      </c>
+      <c r="G121" s="36">
+        <v>5</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I121" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J121" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K121" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="L121" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="M121" s="37">
+        <v>3.7</v>
+      </c>
+      <c r="N121" s="32"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="36"/>
+      <c r="R121" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S121" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T121" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U121" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V121" s="26">
+        <v>15</v>
+      </c>
+      <c r="W121" s="28">
+        <v>8</v>
+      </c>
+      <c r="X121" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y121" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA121" s="37">
+        <v>30</v>
+      </c>
+      <c r="AB121" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC121" s="41">
+        <v>5</v>
+      </c>
+      <c r="AD121" s="26"/>
+      <c r="AE121" s="37"/>
+      <c r="AF121" s="36"/>
+      <c r="AG121" s="26"/>
+      <c r="AH121" s="28"/>
+      <c r="AI121" s="41"/>
+      <c r="AJ121" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK121" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL121" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO121" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP121" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A122" s="25">
+        <v>220</v>
+      </c>
+      <c r="B122" s="26">
+        <v>3</v>
+      </c>
+      <c r="C122" s="27">
+        <v>141</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" s="28">
+        <v>1</v>
+      </c>
+      <c r="F122" s="29">
+        <v>14.5</v>
+      </c>
+      <c r="G122" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="H122" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="I122" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="J122" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="K122" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L122" s="25">
+        <v>4.8</v>
+      </c>
+      <c r="M122" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N122" s="32"/>
+      <c r="O122" s="33"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S122" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T122" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U122" s="38"/>
+      <c r="V122" s="26">
+        <v>12</v>
+      </c>
+      <c r="W122" s="28">
+        <v>6</v>
+      </c>
+      <c r="X122" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y122" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA122" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB122" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC122" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD122" s="26"/>
+      <c r="AE122" s="37"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="26"/>
+      <c r="AH122" s="28"/>
+      <c r="AI122" s="41"/>
+      <c r="AJ122" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK122" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL122" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO122" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP122" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS122" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT122" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A123" s="25">
+        <v>221</v>
+      </c>
+      <c r="B123" s="26">
+        <v>3</v>
+      </c>
+      <c r="C123" s="27">
+        <v>155.5</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="28">
+        <v>1</v>
+      </c>
+      <c r="F123" s="29">
+        <v>11.5</v>
+      </c>
+      <c r="G123" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="H123" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I123" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J123" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K123" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L123" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="M123" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="N123" s="32"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="28"/>
+      <c r="Q123" s="36"/>
+      <c r="R123" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S123" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T123" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U123" s="38"/>
+      <c r="V123" s="26">
+        <v>7</v>
+      </c>
+      <c r="W123" s="28">
+        <v>4</v>
+      </c>
+      <c r="X123" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y123" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA123" s="37">
+        <v>2</v>
+      </c>
+      <c r="AB123" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC123" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD123" s="26"/>
+      <c r="AE123" s="37"/>
+      <c r="AF123" s="36"/>
+      <c r="AG123" s="26"/>
+      <c r="AH123" s="28"/>
+      <c r="AI123" s="41"/>
+      <c r="AJ123" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK123" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL123" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO123" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP123" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS123" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT123" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A124" s="25">
+        <v>222</v>
+      </c>
+      <c r="B124" s="26">
+        <v>3</v>
+      </c>
+      <c r="C124" s="27">
+        <v>168</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="28">
+        <v>1</v>
+      </c>
+      <c r="F124" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="G124" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H124" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="I124" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="J124" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="K124" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="L124" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="M124" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N124" s="32"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="36"/>
+      <c r="R124" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S124" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T124" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U124" s="38"/>
+      <c r="V124" s="26">
+        <v>5</v>
+      </c>
+      <c r="W124" s="28">
+        <v>4</v>
+      </c>
+      <c r="X124" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y124" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA124" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB124" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC124" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD124" s="26"/>
+      <c r="AE124" s="37"/>
+      <c r="AF124" s="36"/>
+      <c r="AG124" s="26"/>
+      <c r="AH124" s="28"/>
+      <c r="AI124" s="41"/>
+      <c r="AJ124" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK124" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL124" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO124" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP124" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS124" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A125" s="25">
+        <v>223</v>
+      </c>
+      <c r="B125" s="26">
+        <v>3</v>
+      </c>
+      <c r="C125" s="27">
+        <v>180.5</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="28">
+        <v>1</v>
+      </c>
+      <c r="F125" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="G125" s="36">
+        <v>4</v>
+      </c>
+      <c r="H125" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I125" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="J125" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="K125" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L125" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="M125" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N125" s="32"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="36"/>
+      <c r="R125" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S125" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="T125" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U125" s="38"/>
+      <c r="V125" s="26">
+        <v>6</v>
+      </c>
+      <c r="W125" s="28">
+        <v>5</v>
+      </c>
+      <c r="X125" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y125" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA125" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB125" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC125" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD125" s="26"/>
+      <c r="AE125" s="37"/>
+      <c r="AF125" s="36"/>
+      <c r="AG125" s="26"/>
+      <c r="AH125" s="28"/>
+      <c r="AI125" s="41"/>
+      <c r="AJ125" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK125" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL125" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO125" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP125" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS125" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A126" s="25">
+        <v>224</v>
+      </c>
+      <c r="B126" s="26">
+        <v>3</v>
+      </c>
+      <c r="C126" s="27">
+        <v>193</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E126" s="28">
+        <v>1</v>
+      </c>
+      <c r="F126" s="29">
+        <v>15</v>
+      </c>
+      <c r="G126" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="H126" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="I126" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J126" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K126" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L126" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="M126" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="N126" s="32"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S126" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T126" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="U126" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V126" s="26">
+        <v>3</v>
+      </c>
+      <c r="W126" s="28">
+        <v>2</v>
+      </c>
+      <c r="X126" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA126" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB126" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC126" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD126" s="26"/>
+      <c r="AE126" s="37"/>
+      <c r="AF126" s="36"/>
+      <c r="AG126" s="26"/>
+      <c r="AH126" s="28"/>
+      <c r="AI126" s="41"/>
+      <c r="AJ126" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK126" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL126" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO126" s="55">
+        <v>44853</v>
+      </c>
+      <c r="AP126" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A127" s="25">
+        <v>225</v>
+      </c>
+      <c r="B127" s="26">
+        <v>3</v>
+      </c>
+      <c r="C127" s="27">
+        <v>208</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="28">
+        <v>1</v>
+      </c>
+      <c r="F127" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="G127" s="36">
+        <v>6</v>
+      </c>
+      <c r="H127" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="I127" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="J127" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="K127" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L127" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="M127" s="37">
+        <v>5.7</v>
+      </c>
+      <c r="N127" s="32"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="36"/>
+      <c r="R127" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S127" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T127" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U127" s="38"/>
+      <c r="V127" s="26">
+        <v>4</v>
+      </c>
+      <c r="W127" s="28">
+        <v>2</v>
+      </c>
+      <c r="X127" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y127" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA127" s="37">
+        <v>5</v>
+      </c>
+      <c r="AB127" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC127" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD127" s="26"/>
+      <c r="AE127" s="37"/>
+      <c r="AF127" s="36"/>
+      <c r="AG127" s="26"/>
+      <c r="AH127" s="28"/>
+      <c r="AI127" s="41"/>
+      <c r="AJ127" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK127" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL127" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO127" s="55">
+        <v>44854</v>
+      </c>
+      <c r="AP127" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS127" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:K4"/>
@@ -12922,11 +15706,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airvine/Projects/repo/fish_passage_elk_2022_reporting/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matwi\Projects\repo\fish_passage_elk_2022_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D752D-C0F6-6240-BD15-5FCA6A268E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411B0C4-95A5-4B4B-AD3B-402D8EDB7DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="105">
   <si>
     <t xml:space="preserve">Mean Depth </t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>wpt end 231, at 264.5m</t>
   </si>
 </sst>
 </file>
@@ -975,6 +978,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -984,25 +1000,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1032,41 +1054,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1375,7 +1378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,45 +1386,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC9D326-4609-4EA2-B5AA-7FE5A82D090A}">
-  <dimension ref="A1:BA126"/>
+  <dimension ref="A1:BA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" customWidth="1"/>
-    <col min="41" max="41" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="44"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1429,69 +1432,69 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:53" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:53" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="51" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="51" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="73" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="51" t="s">
+      <c r="W3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="51" t="s">
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="51" t="s">
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="53"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="57"/>
       <c r="AM3" t="s">
         <v>27</v>
       </c>
@@ -1522,19 +1525,19 @@
       <c r="AV3" t="s">
         <v>32</v>
       </c>
-      <c r="AW3" s="50" t="s">
+      <c r="AW3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
     </row>
-    <row r="4" spans="1:53" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1555,40 +1558,40 @@
       <c r="H4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="46" t="s">
         <v>93</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="47" t="s">
         <v>96</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="74"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1616,19 +1619,19 @@
       <c r="AE4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="75" t="s">
+      <c r="AF4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="62"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="69"/>
       <c r="AJ4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AL4" s="75" t="s">
+      <c r="AL4" s="48" t="s">
         <v>101</v>
       </c>
       <c r="AW4" t="s">
@@ -1647,7 +1650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>98</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>99</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>100</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>101</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>102</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>103</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>104</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>105</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>106</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>107</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>108</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>109</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>110</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>111</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>112</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>114</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>115</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>116</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>117</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>118</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>119</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>120</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>121</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>122</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>123</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>124</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>125</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>126</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>127</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>128</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>129</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>130</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>131</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>132</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>133</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>134</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>135</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>136</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>137</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>140</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>141</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>142</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>143</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>144</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>145</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>146</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>147</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>148</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>149</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>150</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>151</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>152</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>153</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>154</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>155</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>157</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>158</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>159</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>160</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>161</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>162</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>163</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>164</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>165</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>166</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>167</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>168</v>
       </c>
@@ -9295,7 +9298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>169</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>170</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>171</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>172</v>
       </c>
@@ -9721,7 +9724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>173</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>174</v>
       </c>
@@ -9945,7 +9948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>175</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>176</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>177</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>178</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>179</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>180</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>181</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>182</v>
       </c>
@@ -10833,7 +10836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>183</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>184</v>
       </c>
@@ -11051,7 +11054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>185</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>186</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>187</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>188</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>189</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>190</v>
       </c>
@@ -11703,7 +11706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>191</v>
       </c>
@@ -11812,7 +11815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>192</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>193</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>194</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>195</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>196</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>197</v>
       </c>
@@ -12468,7 +12471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>198</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>199</v>
       </c>
@@ -12682,7 +12685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>203</v>
       </c>
@@ -12796,7 +12799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>204</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>205</v>
       </c>
@@ -13022,7 +13025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>206</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>207</v>
       </c>
@@ -13256,7 +13259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>208</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>209</v>
       </c>
@@ -13484,7 +13487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>210</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>211</v>
       </c>
@@ -13710,7 +13713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>212</v>
       </c>
@@ -13824,7 +13827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>213</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>213</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>214</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>215</v>
       </c>
@@ -14288,7 +14291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>216</v>
       </c>
@@ -14413,7 +14416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>217</v>
       </c>
@@ -14527,7 +14530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>218</v>
       </c>
@@ -14652,7 +14655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>219</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>220</v>
       </c>
@@ -14878,7 +14881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>221</v>
       </c>
@@ -14990,7 +14993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>222</v>
       </c>
@@ -15102,7 +15105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>223</v>
       </c>
@@ -15214,7 +15217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>224</v>
       </c>
@@ -15328,7 +15331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>225</v>
       </c>
@@ -15440,14 +15443,585 @@
         <v>80</v>
       </c>
     </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>226</v>
+      </c>
+      <c r="B127" s="12">
+        <v>3</v>
+      </c>
+      <c r="C127" s="13">
+        <v>217.5</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="14">
+        <v>1</v>
+      </c>
+      <c r="F127" s="15">
+        <v>11</v>
+      </c>
+      <c r="G127" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H127" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I127" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="J127" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K127" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="L127" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="M127" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N127" s="18"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="T127" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U127" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V127" s="12">
+        <v>5</v>
+      </c>
+      <c r="W127" s="14">
+        <v>1</v>
+      </c>
+      <c r="X127" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y127" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA127" s="23">
+        <v>2</v>
+      </c>
+      <c r="AB127" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC127" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD127" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE127" s="23"/>
+      <c r="AF127" s="22"/>
+      <c r="AG127" s="12"/>
+      <c r="AH127" s="14"/>
+      <c r="AI127" s="27"/>
+      <c r="AJ127" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK127" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL127" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO127" s="40">
+        <v>44853</v>
+      </c>
+      <c r="AP127" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS127" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>227</v>
+      </c>
+      <c r="B128" s="12">
+        <v>3</v>
+      </c>
+      <c r="C128" s="13">
+        <v>228.5</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="14">
+        <v>1</v>
+      </c>
+      <c r="F128" s="15">
+        <v>14</v>
+      </c>
+      <c r="G128" s="22">
+        <v>4</v>
+      </c>
+      <c r="H128" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="I128" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J128" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K128" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="L128" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M128" s="23">
+        <v>3.8</v>
+      </c>
+      <c r="N128" s="18"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S128" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T128" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U128" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V128" s="12">
+        <v>13</v>
+      </c>
+      <c r="W128" s="14">
+        <v>5</v>
+      </c>
+      <c r="X128" s="14">
+        <v>7</v>
+      </c>
+      <c r="Y128" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA128" s="23">
+        <v>15</v>
+      </c>
+      <c r="AB128" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC128" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD128" s="12"/>
+      <c r="AE128" s="23"/>
+      <c r="AF128" s="22"/>
+      <c r="AG128" s="12"/>
+      <c r="AH128" s="14"/>
+      <c r="AI128" s="27"/>
+      <c r="AJ128" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK128" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO128" s="40">
+        <v>44853</v>
+      </c>
+      <c r="AP128" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>228</v>
+      </c>
+      <c r="B129" s="12">
+        <v>3</v>
+      </c>
+      <c r="C129" s="13">
+        <v>242.5</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="14">
+        <v>1</v>
+      </c>
+      <c r="F129" s="15">
+        <v>5</v>
+      </c>
+      <c r="G129" s="22">
+        <v>1</v>
+      </c>
+      <c r="H129" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I129" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J129" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K129" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="L129" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="M129" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="N129" s="18"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S129" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="T129" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="U129" s="24"/>
+      <c r="V129" s="12">
+        <v>2</v>
+      </c>
+      <c r="W129" s="14">
+        <v>1</v>
+      </c>
+      <c r="X129" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y129" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA129" s="23">
+        <v>2</v>
+      </c>
+      <c r="AB129" s="14"/>
+      <c r="AC129" s="27"/>
+      <c r="AD129" s="12"/>
+      <c r="AE129" s="23"/>
+      <c r="AF129" s="22"/>
+      <c r="AG129" s="12"/>
+      <c r="AH129" s="14"/>
+      <c r="AI129" s="27"/>
+      <c r="AJ129" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK129" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL129" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO129" s="40">
+        <v>44853</v>
+      </c>
+      <c r="AP129" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS129" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT129" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>229</v>
+      </c>
+      <c r="B130" s="12">
+        <v>3</v>
+      </c>
+      <c r="C130" s="13">
+        <v>247.5</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="14">
+        <v>1</v>
+      </c>
+      <c r="F130" s="15">
+        <v>13</v>
+      </c>
+      <c r="G130" s="22">
+        <v>6</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I130" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J130" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="K130" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="L130" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="M130" s="23">
+        <v>5</v>
+      </c>
+      <c r="N130" s="18"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T130" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U130" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V130" s="12">
+        <v>6</v>
+      </c>
+      <c r="W130" s="14">
+        <v>3</v>
+      </c>
+      <c r="X130" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y130" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA130" s="23">
+        <v>3</v>
+      </c>
+      <c r="AB130" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC130" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD130" s="12"/>
+      <c r="AE130" s="23"/>
+      <c r="AF130" s="22"/>
+      <c r="AG130" s="12"/>
+      <c r="AH130" s="14"/>
+      <c r="AI130" s="27"/>
+      <c r="AJ130" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK130" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL130" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO130" s="40">
+        <v>44853</v>
+      </c>
+      <c r="AP130" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR130" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS130" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT130" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>230</v>
+      </c>
+      <c r="B131" s="12">
+        <v>3</v>
+      </c>
+      <c r="C131" s="13">
+        <v>260.5</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="14">
+        <v>1</v>
+      </c>
+      <c r="F131" s="15">
+        <v>4</v>
+      </c>
+      <c r="G131" s="22">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="I131" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J131" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="K131" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="L131" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="M131" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="N131" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="O131" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="P131" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="Q131" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R131" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T131" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U131" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V131" s="12">
+        <v>8</v>
+      </c>
+      <c r="W131" s="14">
+        <v>2</v>
+      </c>
+      <c r="X131" s="14">
+        <v>6</v>
+      </c>
+      <c r="Y131" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA131" s="23">
+        <v>5</v>
+      </c>
+      <c r="AB131" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC131" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD131" s="12"/>
+      <c r="AE131" s="23"/>
+      <c r="AF131" s="22"/>
+      <c r="AG131" s="12"/>
+      <c r="AH131" s="14"/>
+      <c r="AI131" s="27"/>
+      <c r="AJ131" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK131" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL131" s="22">
+        <v>1</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO131" s="40">
+        <v>44853</v>
+      </c>
+      <c r="AP131" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS131" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="I4:K4"/>
@@ -15461,6 +16035,12 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matwi\Projects\repo\fish_passage_elk_2022_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airvine/Projects/repo/fish_passage_elk_2022_reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411B0C4-95A5-4B4B-AD3B-402D8EDB7DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B7002-E11F-F845-8E36-0DC1402C2CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
+    <workbookView xWindow="-38040" yWindow="0" windowWidth="35340" windowHeight="20740" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="106">
   <si>
     <t xml:space="preserve">Mean Depth </t>
   </si>
@@ -207,9 +212,6 @@
   </si>
   <si>
     <t>YF</t>
-  </si>
-  <si>
-    <t>from ford</t>
   </si>
   <si>
     <t>N</t>
@@ -404,6 +406,12 @@
   </si>
   <si>
     <t>wpt end 231, at 264.5m</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Started at ford crossing (PSCIS 197820) located at downstream route measure 1248m.</t>
   </si>
 </sst>
 </file>
@@ -851,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,37 +999,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1058,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,7 +1389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,42 +1399,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC9D326-4609-4EA2-B5AA-7FE5A82D090A}">
   <dimension ref="A1:BA131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C105" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
-    <col min="41" max="41" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="41" max="41" width="10.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="44"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1432,166 +1443,148 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:53" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
+    <row r="3" spans="1:53" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="59" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="59" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="60" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="59" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="59" t="s">
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="64" t="s">
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="59" t="s">
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW3" s="58" t="s">
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
-    <row r="4" spans="1:53" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="O4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="Q4" s="47" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>96</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="62"/>
-      <c r="V4" s="75"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="68"/>
       <c r="W4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1620,11 +1613,11 @@
         <v>13</v>
       </c>
       <c r="AF4" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="69"/>
+        <v>99</v>
+      </c>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="62"/>
       <c r="AJ4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1625,37 @@
         <v>14</v>
       </c>
       <c r="AL4" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>32</v>
       </c>
       <c r="AW4" t="s">
         <v>34</v>
@@ -1650,7 +1673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>98</v>
       </c>
@@ -1746,25 +1769,25 @@
         <v>1</v>
       </c>
       <c r="AN5" s="39" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AO5" s="40">
         <v>44840</v>
       </c>
       <c r="AP5" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS5" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>60</v>
       </c>
-      <c r="AT5" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>99</v>
       </c>
@@ -1815,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U6" s="24"/>
       <c r="V6" s="12">
@@ -1837,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC6" s="27" t="s">
         <v>45</v>
@@ -1861,19 +1884,19 @@
         <v>44840</v>
       </c>
       <c r="AP6" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS6" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>60</v>
       </c>
-      <c r="AT6" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>100</v>
       </c>
@@ -1969,25 +1992,25 @@
         <v>1</v>
       </c>
       <c r="AN7" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO7" s="40">
         <v>44840</v>
       </c>
       <c r="AP7" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" t="s">
         <v>59</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>60</v>
       </c>
-      <c r="AT7" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>101</v>
       </c>
@@ -2083,25 +2106,25 @@
         <v>1</v>
       </c>
       <c r="AN8" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO8" s="40">
         <v>44840</v>
       </c>
       <c r="AP8" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS8" t="s">
         <v>59</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>60</v>
       </c>
-      <c r="AT8" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>102</v>
       </c>
@@ -2197,25 +2220,25 @@
         <v>1</v>
       </c>
       <c r="AN9" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO9" s="40">
         <v>44840</v>
       </c>
       <c r="AP9" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS9" t="s">
         <v>59</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>60</v>
       </c>
-      <c r="AT9" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>103</v>
       </c>
@@ -2305,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="AK10" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL10" s="22">
         <v>1</v>
@@ -2314,19 +2337,19 @@
         <v>44840</v>
       </c>
       <c r="AP10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS10" t="s">
         <v>59</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>60</v>
       </c>
-      <c r="AT10" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>104</v>
       </c>
@@ -2395,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="23">
         <v>7</v>
@@ -2416,7 +2439,7 @@
         <v>46</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL11" s="22">
         <v>1</v>
@@ -2425,19 +2448,19 @@
         <v>44840</v>
       </c>
       <c r="AP11" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" t="s">
         <v>59</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>60</v>
       </c>
-      <c r="AT11" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>105</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA12" s="23">
         <v>5</v>
@@ -2527,7 +2550,7 @@
         <v>46</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL12" s="22">
         <v>1</v>
@@ -2536,19 +2559,19 @@
         <v>44840</v>
       </c>
       <c r="AP12" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" t="s">
         <v>59</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>60</v>
       </c>
-      <c r="AT12" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>106</v>
       </c>
@@ -2638,7 +2661,7 @@
         <v>46</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL13" s="22">
         <v>1</v>
@@ -2647,19 +2670,19 @@
         <v>44840</v>
       </c>
       <c r="AP13" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" t="s">
         <v>59</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>60</v>
       </c>
-      <c r="AT13" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>107</v>
       </c>
@@ -2667,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>25</v>
@@ -2734,7 +2757,7 @@
         <v>45</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC14" s="27" t="s">
         <v>45</v>
@@ -2749,7 +2772,7 @@
         <v>46</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL14" s="22">
         <v>1</v>
@@ -2758,19 +2781,19 @@
         <v>44840</v>
       </c>
       <c r="AP14" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" t="s">
         <v>59</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>60</v>
       </c>
-      <c r="AT14" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>108</v>
       </c>
@@ -2778,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>24</v>
@@ -2820,16 +2843,16 @@
         <v>0.45</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>26</v>
@@ -2868,7 +2891,7 @@
         <v>46</v>
       </c>
       <c r="AK15" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL15" s="22">
         <v>1</v>
@@ -2877,19 +2900,19 @@
         <v>44840</v>
       </c>
       <c r="AP15" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS15" t="s">
         <v>59</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>60</v>
       </c>
-      <c r="AT15" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>109</v>
       </c>
@@ -2897,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="13">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>26</v>
@@ -2937,10 +2960,10 @@
         <v>41</v>
       </c>
       <c r="S16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="U16" s="24" t="s">
         <v>26</v>
@@ -2975,7 +2998,7 @@
         <v>46</v>
       </c>
       <c r="AK16" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL16" s="22">
         <v>1</v>
@@ -2984,19 +3007,19 @@
         <v>44840</v>
       </c>
       <c r="AP16" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS16" t="s">
         <v>59</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>60</v>
       </c>
-      <c r="AT16" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>110</v>
       </c>
@@ -3004,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="13">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>24</v>
@@ -3046,16 +3069,16 @@
         <v>0.4</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="U17" s="24" t="s">
         <v>26</v>
@@ -3073,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA17" s="23">
         <v>50</v>
@@ -3094,7 +3117,7 @@
         <v>46</v>
       </c>
       <c r="AK17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL17" s="22">
         <v>1</v>
@@ -3103,19 +3126,19 @@
         <v>44840</v>
       </c>
       <c r="AP17" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" t="s">
         <v>59</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>60</v>
       </c>
-      <c r="AT17" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>111</v>
       </c>
@@ -3123,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="13">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -3184,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="23" t="s">
         <v>45</v>
@@ -3205,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="AK18" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL18" s="22">
         <v>1</v>
@@ -3214,19 +3237,19 @@
         <v>44840</v>
       </c>
       <c r="AP18" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" t="s">
         <v>59</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>60</v>
       </c>
-      <c r="AT18" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>112</v>
       </c>
@@ -3234,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="13">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>24</v>
@@ -3276,7 +3299,7 @@
         <v>0.6</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>41</v>
@@ -3285,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U19" s="24" t="s">
         <v>26</v>
@@ -3303,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA19" s="23">
         <v>40</v>
@@ -3324,31 +3347,31 @@
         <v>46</v>
       </c>
       <c r="AK19" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL19" s="22">
         <v>1</v>
       </c>
       <c r="AN19" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AO19" s="40">
         <v>44840</v>
       </c>
       <c r="AP19" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS19" t="s">
         <v>59</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>60</v>
       </c>
-      <c r="AT19" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>114</v>
       </c>
@@ -3399,7 +3422,7 @@
         <v>42</v>
       </c>
       <c r="T20" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U20" s="24"/>
       <c r="V20" s="12">
@@ -3436,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="AK20" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL20" s="22">
         <v>1</v>
@@ -3445,22 +3468,22 @@
         <v>44841</v>
       </c>
       <c r="AP20" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT20" t="s">
         <v>60</v>
       </c>
-      <c r="AT20" t="s">
-        <v>61</v>
-      </c>
       <c r="AV20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>115</v>
       </c>
@@ -3550,7 +3573,7 @@
         <v>25</v>
       </c>
       <c r="AK21" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL21" s="22">
         <v>1</v>
@@ -3559,22 +3582,22 @@
         <v>44841</v>
       </c>
       <c r="AP21" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT21" t="s">
         <v>60</v>
       </c>
-      <c r="AT21" t="s">
-        <v>61</v>
-      </c>
       <c r="AV21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>116</v>
       </c>
@@ -3664,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="AK22" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL22" s="22">
         <v>1</v>
@@ -3673,22 +3696,22 @@
         <v>44841</v>
       </c>
       <c r="AP22" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT22" t="s">
         <v>60</v>
       </c>
-      <c r="AT22" t="s">
-        <v>61</v>
-      </c>
       <c r="AV22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>117</v>
       </c>
@@ -3763,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC23" s="27">
         <v>3</v>
@@ -3778,37 +3801,37 @@
         <v>25</v>
       </c>
       <c r="AK23" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL23" s="22">
         <v>1</v>
       </c>
       <c r="AM23" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN23" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AO23" s="40">
         <v>44841</v>
       </c>
       <c r="AP23" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT23" t="s">
         <v>60</v>
       </c>
-      <c r="AT23" t="s">
-        <v>61</v>
-      </c>
       <c r="AV23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>118</v>
       </c>
@@ -3825,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="22">
         <v>1.5</v>
@@ -3859,7 +3882,7 @@
         <v>25</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>26</v>
@@ -3898,7 +3921,7 @@
         <v>25</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL24" s="22">
         <v>1</v>
@@ -3907,22 +3930,22 @@
         <v>44841</v>
       </c>
       <c r="AP24" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT24" t="s">
         <v>60</v>
       </c>
-      <c r="AT24" t="s">
-        <v>61</v>
-      </c>
       <c r="AV24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>119</v>
       </c>
@@ -3973,7 +3996,7 @@
         <v>42</v>
       </c>
       <c r="T25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U25" s="24"/>
       <c r="V25" s="12">
@@ -4010,7 +4033,7 @@
         <v>25</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL25" s="22">
         <v>1</v>
@@ -4019,22 +4042,22 @@
         <v>44841</v>
       </c>
       <c r="AP25" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT25" t="s">
         <v>60</v>
       </c>
-      <c r="AT25" t="s">
-        <v>61</v>
-      </c>
       <c r="AV25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>120</v>
       </c>
@@ -4124,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL26" s="22">
         <v>1</v>
@@ -4133,22 +4156,22 @@
         <v>44841</v>
       </c>
       <c r="AP26" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT26" t="s">
         <v>60</v>
       </c>
-      <c r="AT26" t="s">
-        <v>61</v>
-      </c>
       <c r="AV26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>121</v>
       </c>
@@ -4238,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="AK27" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL27" s="22">
         <v>1</v>
@@ -4247,22 +4270,22 @@
         <v>44841</v>
       </c>
       <c r="AP27" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT27" t="s">
         <v>60</v>
       </c>
-      <c r="AT27" t="s">
-        <v>61</v>
-      </c>
       <c r="AV27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>122</v>
       </c>
@@ -4352,7 +4375,7 @@
         <v>25</v>
       </c>
       <c r="AK28" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL28" s="22">
         <v>1</v>
@@ -4361,22 +4384,22 @@
         <v>44841</v>
       </c>
       <c r="AP28" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT28" t="s">
         <v>60</v>
       </c>
-      <c r="AT28" t="s">
-        <v>61</v>
-      </c>
       <c r="AV28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>123</v>
       </c>
@@ -4457,7 +4480,7 @@
         <v>45</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE29" s="23" t="s">
         <v>24</v>
@@ -4472,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="AK29" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL29" s="22">
         <v>1</v>
@@ -4481,22 +4504,22 @@
         <v>44841</v>
       </c>
       <c r="AP29" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT29" t="s">
         <v>60</v>
       </c>
-      <c r="AT29" t="s">
-        <v>61</v>
-      </c>
       <c r="AV29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>124</v>
       </c>
@@ -4546,7 +4569,7 @@
         <v>0.7</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>25</v>
@@ -4573,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA30" s="23">
         <v>70</v>
@@ -4594,37 +4617,37 @@
         <v>25</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL30" s="22">
         <v>1</v>
       </c>
       <c r="AM30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN30" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO30" s="40">
         <v>44841</v>
       </c>
       <c r="AP30" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT30" t="s">
         <v>60</v>
       </c>
-      <c r="AT30" t="s">
-        <v>61</v>
-      </c>
       <c r="AV30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>125</v>
       </c>
@@ -4714,7 +4737,7 @@
         <v>25</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL31" s="22">
         <v>1</v>
@@ -4723,22 +4746,22 @@
         <v>44841</v>
       </c>
       <c r="AP31" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT31" t="s">
         <v>60</v>
       </c>
-      <c r="AT31" t="s">
-        <v>61</v>
-      </c>
       <c r="AV31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>126</v>
       </c>
@@ -4788,7 +4811,7 @@
         <v>0.5</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>25</v>
@@ -4797,7 +4820,7 @@
         <v>42</v>
       </c>
       <c r="T32" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U32" s="24" t="s">
         <v>26</v>
@@ -4830,7 +4853,7 @@
       <c r="AE32" s="23"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH32" s="14"/>
       <c r="AI32" s="27"/>
@@ -4838,7 +4861,7 @@
         <v>25</v>
       </c>
       <c r="AK32" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL32" s="22">
         <v>1</v>
@@ -4847,22 +4870,22 @@
         <v>44841</v>
       </c>
       <c r="AP32" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT32" t="s">
         <v>60</v>
       </c>
-      <c r="AT32" t="s">
-        <v>61</v>
-      </c>
       <c r="AV32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>127</v>
       </c>
@@ -4931,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA33" s="23">
         <v>80</v>
@@ -4943,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="AD33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE33" s="23" t="s">
         <v>41</v>
@@ -4956,7 +4979,7 @@
         <v>25</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL33" s="22">
         <v>1</v>
@@ -4965,22 +4988,22 @@
         <v>44841</v>
       </c>
       <c r="AP33" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT33" t="s">
         <v>60</v>
       </c>
-      <c r="AT33" t="s">
-        <v>61</v>
-      </c>
       <c r="AV33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>128</v>
       </c>
@@ -5061,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE34" s="23" t="s">
         <v>41</v>
@@ -5076,7 +5099,7 @@
         <v>25</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="22">
         <v>1</v>
@@ -5085,22 +5108,22 @@
         <v>44841</v>
       </c>
       <c r="AP34" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT34" t="s">
         <v>60</v>
       </c>
-      <c r="AT34" t="s">
-        <v>61</v>
-      </c>
       <c r="AV34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>129</v>
       </c>
@@ -5190,7 +5213,7 @@
         <v>25</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL35" s="22">
         <v>1</v>
@@ -5199,22 +5222,22 @@
         <v>44841</v>
       </c>
       <c r="AP35" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT35" t="s">
         <v>60</v>
       </c>
-      <c r="AT35" t="s">
-        <v>61</v>
-      </c>
       <c r="AV35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>130</v>
       </c>
@@ -5304,7 +5327,7 @@
         <v>25</v>
       </c>
       <c r="AK36" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL36" s="22">
         <v>1</v>
@@ -5313,22 +5336,22 @@
         <v>44841</v>
       </c>
       <c r="AP36" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT36" t="s">
         <v>60</v>
       </c>
-      <c r="AT36" t="s">
-        <v>61</v>
-      </c>
       <c r="AV36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>131</v>
       </c>
@@ -5379,7 +5402,7 @@
         <v>25</v>
       </c>
       <c r="T37" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U37" s="24" t="s">
         <v>26</v>
@@ -5418,37 +5441,37 @@
         <v>25</v>
       </c>
       <c r="AK37" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL37" s="22">
         <v>1</v>
       </c>
       <c r="AM37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN37" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO37" s="40">
         <v>44841</v>
       </c>
       <c r="AP37" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT37" t="s">
         <v>60</v>
       </c>
-      <c r="AT37" t="s">
-        <v>61</v>
-      </c>
       <c r="AV37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>132</v>
       </c>
@@ -5456,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="13">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>25</v>
@@ -5496,10 +5519,10 @@
         <v>25</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="12">
@@ -5521,7 +5544,7 @@
         <v>30</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC38" s="27">
         <v>5</v>
@@ -5536,7 +5559,7 @@
         <v>25</v>
       </c>
       <c r="AK38" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL38" s="22">
         <v>1</v>
@@ -5545,22 +5568,22 @@
         <v>44841</v>
       </c>
       <c r="AP38" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT38" t="s">
         <v>60</v>
       </c>
-      <c r="AT38" t="s">
-        <v>61</v>
-      </c>
       <c r="AV38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>133</v>
       </c>
@@ -5568,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>24</v>
@@ -5610,10 +5633,10 @@
         <v>0.5</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S39" s="22" t="s">
         <v>25</v>
@@ -5643,7 +5666,7 @@
         <v>15</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC39" s="27">
         <v>3</v>
@@ -5658,37 +5681,37 @@
         <v>25</v>
       </c>
       <c r="AK39" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL39" s="22">
         <v>1</v>
       </c>
       <c r="AM39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN39" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO39" s="40">
         <v>44841</v>
       </c>
       <c r="AP39" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT39" t="s">
         <v>60</v>
       </c>
-      <c r="AT39" t="s">
-        <v>61</v>
-      </c>
       <c r="AV39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>134</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="13">
-        <v>303.5</v>
+        <v>293.5</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>26</v>
@@ -5763,7 +5786,7 @@
         <v>45</v>
       </c>
       <c r="AB40" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC40" s="27" t="s">
         <v>45</v>
@@ -5778,7 +5801,7 @@
         <v>25</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL40" s="22">
         <v>1</v>
@@ -5787,22 +5810,22 @@
         <v>44841</v>
       </c>
       <c r="AP40" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT40" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" t="s">
-        <v>61</v>
-      </c>
       <c r="AV40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>135</v>
       </c>
@@ -5810,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="13">
-        <v>324</v>
+        <v>293.5</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>41</v>
@@ -5892,7 +5915,7 @@
         <v>25</v>
       </c>
       <c r="AK41" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL41" s="22">
         <v>1</v>
@@ -5901,22 +5924,22 @@
         <v>44841</v>
       </c>
       <c r="AP41" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT41" t="s">
         <v>60</v>
       </c>
-      <c r="AT41" t="s">
-        <v>61</v>
-      </c>
       <c r="AV41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>136</v>
       </c>
@@ -5924,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="13">
-        <v>364</v>
+        <v>333.5</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>25</v>
@@ -5967,7 +5990,7 @@
         <v>42</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U42" s="24"/>
       <c r="V42" s="12">
@@ -6004,7 +6027,7 @@
         <v>46</v>
       </c>
       <c r="AK42" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL42" s="22">
         <v>1</v>
@@ -6013,22 +6036,22 @@
         <v>44841</v>
       </c>
       <c r="AP42" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT42" t="s">
         <v>60</v>
       </c>
-      <c r="AT42" t="s">
-        <v>61</v>
-      </c>
       <c r="AV42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>137</v>
       </c>
@@ -6036,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="13">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>24</v>
@@ -6078,7 +6101,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>25</v>
@@ -6105,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA43" s="23">
         <v>55</v>
@@ -6126,39 +6149,39 @@
         <v>46</v>
       </c>
       <c r="AK43" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL43" s="22">
         <v>1</v>
       </c>
       <c r="AN43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO43" s="40">
         <v>44841</v>
       </c>
       <c r="AP43" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT43" t="s">
         <v>60</v>
       </c>
-      <c r="AT43" t="s">
-        <v>61</v>
-      </c>
       <c r="AV43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>140</v>
       </c>
       <c r="B44" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="13">
         <v>0</v>
@@ -6228,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC44" s="27" t="s">
         <v>45</v>
@@ -6243,36 +6266,36 @@
         <v>25</v>
       </c>
       <c r="AK44" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL44" s="22">
         <v>1</v>
       </c>
       <c r="AN44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO44" s="40">
         <v>44851</v>
       </c>
       <c r="AP44" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT44" t="s">
         <v>60</v>
       </c>
-      <c r="AT44" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>141</v>
       </c>
       <c r="B45" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="13">
         <v>17</v>
@@ -6336,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA45" s="23">
         <v>3</v>
@@ -6357,7 +6380,7 @@
         <v>25</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL45" s="22">
         <v>1</v>
@@ -6366,24 +6389,24 @@
         <v>44851</v>
       </c>
       <c r="AP45" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT45" t="s">
         <v>60</v>
       </c>
-      <c r="AT45" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>142</v>
       </c>
       <c r="B46" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="13">
         <v>31</v>
@@ -6468,7 +6491,7 @@
         <v>25</v>
       </c>
       <c r="AK46" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL46" s="22">
         <v>1</v>
@@ -6477,24 +6500,24 @@
         <v>44851</v>
       </c>
       <c r="AP46" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT46" t="s">
         <v>60</v>
       </c>
-      <c r="AT46" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>143</v>
       </c>
       <c r="B47" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="13">
         <v>45</v>
@@ -6540,7 +6563,7 @@
         <v>41</v>
       </c>
       <c r="T47" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U47" s="24" t="s">
         <v>26</v>
@@ -6579,7 +6602,7 @@
         <v>25</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL47" s="22">
         <v>1</v>
@@ -6588,24 +6611,24 @@
         <v>44851</v>
       </c>
       <c r="AP47" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT47" t="s">
         <v>60</v>
       </c>
-      <c r="AT47" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>144</v>
       </c>
       <c r="B48" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" s="13">
         <v>51</v>
@@ -6651,7 +6674,7 @@
         <v>42</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U48" s="24"/>
       <c r="V48" s="12">
@@ -6688,7 +6711,7 @@
         <v>46</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL48" s="22">
         <v>1</v>
@@ -6697,24 +6720,24 @@
         <v>44851</v>
       </c>
       <c r="AP48" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT48" t="s">
         <v>60</v>
       </c>
-      <c r="AT48" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>145</v>
       </c>
       <c r="B49" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="13">
         <v>64</v>
@@ -6799,7 +6822,7 @@
         <v>46</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL49" s="22">
         <v>1</v>
@@ -6808,24 +6831,24 @@
         <v>44851</v>
       </c>
       <c r="AP49" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT49" t="s">
         <v>60</v>
       </c>
-      <c r="AT49" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>146</v>
       </c>
       <c r="B50" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" s="13">
         <v>75</v>
@@ -6871,7 +6894,7 @@
         <v>41</v>
       </c>
       <c r="T50" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U50" s="24"/>
       <c r="V50" s="12">
@@ -6893,7 +6916,7 @@
         <v>45</v>
       </c>
       <c r="AB50" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC50" s="27" t="s">
         <v>45</v>
@@ -6908,7 +6931,7 @@
         <v>46</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL50" s="22">
         <v>1</v>
@@ -6917,24 +6940,24 @@
         <v>44851</v>
       </c>
       <c r="AP50" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT50" t="s">
         <v>60</v>
       </c>
-      <c r="AT50" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>147</v>
       </c>
       <c r="B51" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" s="13">
         <v>87</v>
@@ -6979,7 +7002,7 @@
         <v>0.9</v>
       </c>
       <c r="Q51" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R51" s="12" t="s">
         <v>41</v>
@@ -6988,13 +7011,13 @@
         <v>25</v>
       </c>
       <c r="T51" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U51" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W51" s="14">
         <v>0</v>
@@ -7006,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA51" s="23">
         <v>75</v>
@@ -7021,7 +7044,7 @@
       <c r="AE51" s="23"/>
       <c r="AF51" s="22"/>
       <c r="AG51" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH51" s="14"/>
       <c r="AI51" s="27"/>
@@ -7029,7 +7052,7 @@
         <v>46</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL51" s="22">
         <v>1</v>
@@ -7038,24 +7061,24 @@
         <v>44851</v>
       </c>
       <c r="AP51" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT51" t="s">
         <v>60</v>
       </c>
-      <c r="AT51" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>148</v>
       </c>
       <c r="B52" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="13">
         <v>90</v>
@@ -7101,7 +7124,7 @@
         <v>41</v>
       </c>
       <c r="T52" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U52" s="24"/>
       <c r="V52" s="12">
@@ -7117,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA52" s="23" t="s">
         <v>45</v>
@@ -7138,7 +7161,7 @@
         <v>46</v>
       </c>
       <c r="AK52" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL52" s="22">
         <v>1</v>
@@ -7147,24 +7170,24 @@
         <v>44851</v>
       </c>
       <c r="AP52" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT52" t="s">
         <v>60</v>
       </c>
-      <c r="AT52" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>149</v>
       </c>
       <c r="B53" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="13">
         <v>100</v>
@@ -7210,7 +7233,7 @@
         <v>41</v>
       </c>
       <c r="T53" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U53" s="24"/>
       <c r="V53" s="12">
@@ -7226,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA53" s="23" t="s">
         <v>45</v>
       </c>
       <c r="AB53" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC53" s="27" t="s">
         <v>45</v>
@@ -7247,7 +7270,7 @@
         <v>46</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL53" s="22">
         <v>1</v>
@@ -7256,24 +7279,24 @@
         <v>44851</v>
       </c>
       <c r="AP53" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT53" t="s">
         <v>60</v>
       </c>
-      <c r="AT53" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>150</v>
       </c>
       <c r="B54" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" s="13">
         <v>103</v>
@@ -7337,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA54" s="23" t="s">
         <v>45</v>
@@ -7358,7 +7381,7 @@
         <v>25</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL54" s="22">
         <v>1</v>
@@ -7367,24 +7390,24 @@
         <v>44851</v>
       </c>
       <c r="AP54" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT54" t="s">
         <v>60</v>
       </c>
-      <c r="AT54" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>151</v>
       </c>
       <c r="B55" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" s="13">
         <v>116.2</v>
@@ -7454,13 +7477,13 @@
         <v>45</v>
       </c>
       <c r="AB55" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC55" s="27" t="s">
         <v>45</v>
       </c>
       <c r="AD55" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE55" s="23" t="s">
         <v>41</v>
@@ -7475,7 +7498,7 @@
         <v>25</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL55" s="22">
         <v>1</v>
@@ -7484,27 +7507,27 @@
         <v>44851</v>
       </c>
       <c r="AP55" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT55" t="s">
         <v>60</v>
       </c>
-      <c r="AT55" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>152</v>
       </c>
       <c r="B56" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" s="13">
-        <v>144.19999999999999</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>26</v>
@@ -7547,7 +7570,7 @@
         <v>41</v>
       </c>
       <c r="T56" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U56" s="24"/>
       <c r="V56" s="12">
@@ -7563,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA56" s="23" t="s">
         <v>45</v>
@@ -7584,7 +7607,7 @@
         <v>25</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL56" s="22">
         <v>1</v>
@@ -7593,27 +7616,27 @@
         <v>44851</v>
       </c>
       <c r="AP56" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT56" t="s">
         <v>60</v>
       </c>
-      <c r="AT56" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>153</v>
       </c>
       <c r="B57" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="13">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>25</v>
@@ -7656,7 +7679,7 @@
         <v>41</v>
       </c>
       <c r="T57" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U57" s="24"/>
       <c r="V57" s="12">
@@ -7689,7 +7712,7 @@
         <v>25</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL57" s="22">
         <v>1</v>
@@ -7698,27 +7721,27 @@
         <v>44851</v>
       </c>
       <c r="AP57" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT57" t="s">
         <v>60</v>
       </c>
-      <c r="AT57" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>154</v>
       </c>
       <c r="B58" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" s="13">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>26</v>
@@ -7800,7 +7823,7 @@
         <v>25</v>
       </c>
       <c r="AK58" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL58" s="22">
         <v>1</v>
@@ -7809,27 +7832,27 @@
         <v>44851</v>
       </c>
       <c r="AP58" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT58" t="s">
         <v>60</v>
       </c>
-      <c r="AT58" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>155</v>
       </c>
       <c r="B59" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="13">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>25</v>
@@ -7872,7 +7895,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U59" s="24"/>
       <c r="V59" s="12">
@@ -7894,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="AB59" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC59" s="27" t="s">
         <v>45</v>
@@ -7909,7 +7932,7 @@
         <v>25</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL59" s="22">
         <v>1</v>
@@ -7918,27 +7941,27 @@
         <v>44851</v>
       </c>
       <c r="AP59" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT59" t="s">
         <v>60</v>
       </c>
-      <c r="AT59" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>157</v>
       </c>
       <c r="B60" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="13">
-        <v>211.5</v>
+        <v>212.5</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>26</v>
@@ -8005,7 +8028,7 @@
         <v>45</v>
       </c>
       <c r="AB60" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC60" s="27" t="s">
         <v>45</v>
@@ -8020,7 +8043,7 @@
         <v>25</v>
       </c>
       <c r="AK60" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL60" s="22">
         <v>1</v>
@@ -8029,27 +8052,27 @@
         <v>44851</v>
       </c>
       <c r="AP60" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT60" t="s">
         <v>60</v>
       </c>
-      <c r="AT60" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>158</v>
       </c>
       <c r="B61" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="13">
-        <v>220.9</v>
+        <v>231.5</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>25</v>
@@ -8092,7 +8115,7 @@
         <v>42</v>
       </c>
       <c r="T61" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U61" s="24"/>
       <c r="V61" s="12">
@@ -8129,7 +8152,7 @@
         <v>25</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL61" s="22">
         <v>2</v>
@@ -8138,27 +8161,27 @@
         <v>44851</v>
       </c>
       <c r="AP61" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT61" t="s">
         <v>60</v>
       </c>
-      <c r="AT61" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>159</v>
       </c>
       <c r="B62" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="13">
-        <v>271.7</v>
+        <v>282.3</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>41</v>
@@ -8225,7 +8248,7 @@
         <v>50</v>
       </c>
       <c r="AB62" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC62" s="27">
         <v>25</v>
@@ -8234,17 +8257,17 @@
       <c r="AE62" s="23"/>
       <c r="AF62" s="22"/>
       <c r="AG62" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH62" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI62" s="27"/>
       <c r="AJ62" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL62" s="22">
         <v>1</v>
@@ -8253,27 +8276,27 @@
         <v>44851</v>
       </c>
       <c r="AP62" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT62" t="s">
         <v>60</v>
       </c>
-      <c r="AT62" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>160</v>
       </c>
       <c r="B63" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="13">
-        <v>274.7</v>
+        <v>285.3</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>25</v>
@@ -8316,7 +8339,7 @@
         <v>41</v>
       </c>
       <c r="T63" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U63" s="24"/>
       <c r="V63" s="12">
@@ -8338,7 +8361,7 @@
         <v>25</v>
       </c>
       <c r="AB63" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC63" s="27">
         <v>15</v>
@@ -8353,7 +8376,7 @@
         <v>25</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL63" s="22">
         <v>1</v>
@@ -8362,27 +8385,27 @@
         <v>44851</v>
       </c>
       <c r="AP63" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT63" t="s">
         <v>60</v>
       </c>
-      <c r="AT63" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>161</v>
       </c>
       <c r="B64" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" s="13">
-        <v>295</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>26</v>
@@ -8458,7 +8481,7 @@
       <c r="AE64" s="23"/>
       <c r="AF64" s="22"/>
       <c r="AG64" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH64" s="14"/>
       <c r="AI64" s="27"/>
@@ -8466,7 +8489,7 @@
         <v>25</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL64" s="22">
         <v>1</v>
@@ -8475,27 +8498,27 @@
         <v>44851</v>
       </c>
       <c r="AP64" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT64" t="s">
         <v>60</v>
       </c>
-      <c r="AT64" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>162</v>
       </c>
       <c r="B65" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="13">
-        <v>304</v>
+        <v>314.60000000000002</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>25</v>
@@ -8562,7 +8585,7 @@
         <v>30</v>
       </c>
       <c r="AB65" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC65" s="27">
         <v>30</v>
@@ -8571,17 +8594,17 @@
       <c r="AE65" s="23"/>
       <c r="AF65" s="22"/>
       <c r="AG65" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH65" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI65" s="27"/>
       <c r="AJ65" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AK65" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL65" s="22">
         <v>1</v>
@@ -8590,27 +8613,27 @@
         <v>44851</v>
       </c>
       <c r="AP65" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT65" t="s">
         <v>60</v>
       </c>
-      <c r="AT65" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>163</v>
       </c>
       <c r="B66" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="13">
-        <v>313</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>26</v>
@@ -8686,7 +8709,7 @@
       <c r="AE66" s="23"/>
       <c r="AF66" s="22"/>
       <c r="AG66" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH66" s="14"/>
       <c r="AI66" s="27"/>
@@ -8694,7 +8717,7 @@
         <v>25</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL66" s="22">
         <v>1</v>
@@ -8703,27 +8726,27 @@
         <v>44851</v>
       </c>
       <c r="AP66" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS66" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT66" t="s">
         <v>60</v>
       </c>
-      <c r="AT66" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>164</v>
       </c>
       <c r="B67" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="13">
-        <v>336</v>
+        <v>346.6</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>41</v>
@@ -8784,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA67" s="23" t="s">
         <v>45</v>
@@ -8799,7 +8822,7 @@
       <c r="AE67" s="23"/>
       <c r="AF67" s="22"/>
       <c r="AG67" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH67" s="14"/>
       <c r="AI67" s="27"/>
@@ -8807,7 +8830,7 @@
         <v>25</v>
       </c>
       <c r="AK67" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL67" s="22">
         <v>1</v>
@@ -8816,27 +8839,27 @@
         <v>44851</v>
       </c>
       <c r="AP67" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT67" t="s">
         <v>60</v>
       </c>
-      <c r="AT67" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>165</v>
       </c>
       <c r="B68" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="13">
-        <v>341</v>
+        <v>351.6</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>24</v>
@@ -8878,7 +8901,7 @@
         <v>0.5</v>
       </c>
       <c r="Q68" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R68" s="12" t="s">
         <v>25</v>
@@ -8905,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA68" s="23">
         <v>90</v>
@@ -8920,7 +8943,7 @@
       <c r="AE68" s="23"/>
       <c r="AF68" s="22"/>
       <c r="AG68" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH68" s="14"/>
       <c r="AI68" s="27"/>
@@ -8928,7 +8951,7 @@
         <v>25</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL68" s="22">
         <v>1</v>
@@ -8937,27 +8960,27 @@
         <v>44851</v>
       </c>
       <c r="AP68" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT68" t="s">
         <v>60</v>
       </c>
-      <c r="AT68" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>166</v>
       </c>
       <c r="B69" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="13">
-        <v>343.5</v>
+        <v>354.1</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>24</v>
@@ -8999,7 +9022,7 @@
         <v>0.65</v>
       </c>
       <c r="Q69" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R69" s="12" t="s">
         <v>41</v>
@@ -9026,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA69" s="23">
         <v>80</v>
@@ -9041,7 +9064,7 @@
       <c r="AE69" s="23"/>
       <c r="AF69" s="22"/>
       <c r="AG69" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH69" s="14"/>
       <c r="AI69" s="27"/>
@@ -9049,7 +9072,7 @@
         <v>25</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL69" s="22">
         <v>1</v>
@@ -9058,27 +9081,27 @@
         <v>44851</v>
       </c>
       <c r="AP69" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS69" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT69" t="s">
         <v>60</v>
       </c>
-      <c r="AT69" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>167</v>
       </c>
       <c r="B70" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="13">
-        <v>346.5</v>
+        <v>357.1</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>25</v>
@@ -9121,7 +9144,7 @@
         <v>41</v>
       </c>
       <c r="T70" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U70" s="24"/>
       <c r="V70" s="12">
@@ -9143,7 +9166,7 @@
         <v>10</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC70" s="27">
         <v>5</v>
@@ -9158,7 +9181,7 @@
         <v>46</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL70" s="22">
         <v>1</v>
@@ -9167,27 +9190,27 @@
         <v>44852</v>
       </c>
       <c r="AP70" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT70" t="s">
         <v>60</v>
       </c>
-      <c r="AT70" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>168</v>
       </c>
       <c r="B71" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="13">
-        <v>350.5</v>
+        <v>361.1</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>24</v>
@@ -9229,10 +9252,10 @@
         <v>0.4</v>
       </c>
       <c r="Q71" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S71" s="22" t="s">
         <v>25</v>
@@ -9262,7 +9285,7 @@
         <v>10</v>
       </c>
       <c r="AB71" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC71" s="27">
         <v>5</v>
@@ -9277,7 +9300,7 @@
         <v>46</v>
       </c>
       <c r="AK71" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL71" s="22">
         <v>1</v>
@@ -9286,27 +9309,27 @@
         <v>44852</v>
       </c>
       <c r="AP71" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT71" t="s">
         <v>60</v>
       </c>
-      <c r="AT71" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>169</v>
       </c>
       <c r="B72" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="13">
-        <v>353</v>
+        <v>363.6</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>25</v>
@@ -9349,7 +9372,7 @@
         <v>41</v>
       </c>
       <c r="T72" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U72" s="24"/>
       <c r="V72" s="12">
@@ -9378,7 +9401,7 @@
         <v>46</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL72" s="22">
         <v>1</v>
@@ -9387,27 +9410,27 @@
         <v>44852</v>
       </c>
       <c r="AP72" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT72" t="s">
         <v>60</v>
       </c>
-      <c r="AT72" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>170</v>
       </c>
       <c r="B73" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" s="13">
-        <v>356</v>
+        <v>366.6</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>41</v>
@@ -9468,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA73" s="23">
         <v>3</v>
@@ -9489,7 +9512,7 @@
         <v>46</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL73" s="22">
         <v>1</v>
@@ -9498,27 +9521,27 @@
         <v>44852</v>
       </c>
       <c r="AP73" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT73" t="s">
         <v>60</v>
       </c>
-      <c r="AT73" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>171</v>
       </c>
       <c r="B74" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="13">
-        <v>367.7</v>
+        <v>378.3</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>25</v>
@@ -9561,7 +9584,7 @@
         <v>41</v>
       </c>
       <c r="T74" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U74" s="24"/>
       <c r="V74" s="12">
@@ -9577,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA74" s="23" t="s">
         <v>45</v>
@@ -9594,7 +9617,7 @@
         <v>46</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL74" s="22">
         <v>1</v>
@@ -9603,27 +9626,27 @@
         <v>44852</v>
       </c>
       <c r="AP74" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS74" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT74" t="s">
         <v>60</v>
       </c>
-      <c r="AT74" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>172</v>
       </c>
       <c r="B75" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" s="13">
-        <v>373</v>
+        <v>383.6</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>26</v>
@@ -9666,7 +9689,7 @@
         <v>41</v>
       </c>
       <c r="T75" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U75" s="24"/>
       <c r="V75" s="12">
@@ -9688,7 +9711,7 @@
         <v>45</v>
       </c>
       <c r="AB75" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC75" s="27" t="s">
         <v>45</v>
@@ -9703,7 +9726,7 @@
         <v>25</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL75" s="22">
         <v>1</v>
@@ -9712,27 +9735,27 @@
         <v>44852</v>
       </c>
       <c r="AP75" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT75" t="s">
         <v>60</v>
       </c>
-      <c r="AT75" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>173</v>
       </c>
       <c r="B76" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" s="13">
-        <v>379.6</v>
+        <v>390.20000000000005</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>25</v>
@@ -9799,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="AB76" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC76" s="27" t="s">
         <v>45</v>
@@ -9814,7 +9837,7 @@
         <v>25</v>
       </c>
       <c r="AK76" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL76" s="22">
         <v>1</v>
@@ -9823,27 +9846,27 @@
         <v>44852</v>
       </c>
       <c r="AP76" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS76" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT76" t="s">
         <v>60</v>
       </c>
-      <c r="AT76" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>174</v>
       </c>
       <c r="B77" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" s="13">
-        <v>393.6</v>
+        <v>404.20000000000005</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>41</v>
@@ -9904,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA77" s="23" t="s">
         <v>45</v>
@@ -9921,42 +9944,42 @@
         <v>25</v>
       </c>
       <c r="AK77" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL77" s="22">
         <v>1</v>
       </c>
       <c r="AM77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN77" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO77" s="40">
         <v>44852</v>
       </c>
       <c r="AP77" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT77" t="s">
         <v>60</v>
       </c>
-      <c r="AT77" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>175</v>
       </c>
       <c r="B78" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" s="13">
-        <v>400.6</v>
+        <v>411.20000000000005</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>25</v>
@@ -9996,10 +10019,10 @@
         <v>41</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T78" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U78" s="24"/>
       <c r="V78" s="12">
@@ -10021,7 +10044,7 @@
         <v>40</v>
       </c>
       <c r="AB78" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC78" s="27">
         <v>40</v>
@@ -10036,7 +10059,7 @@
         <v>25</v>
       </c>
       <c r="AK78" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL78" s="22">
         <v>1</v>
@@ -10045,27 +10068,27 @@
         <v>44852</v>
       </c>
       <c r="AP78" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT78" t="s">
         <v>60</v>
       </c>
-      <c r="AT78" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>176</v>
       </c>
       <c r="B79" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" s="13">
-        <v>405.6</v>
+        <v>416.20000000000005</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>26</v>
@@ -10126,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA79" s="23" t="s">
         <v>45</v>
@@ -10147,7 +10170,7 @@
         <v>25</v>
       </c>
       <c r="AK79" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL79" s="22">
         <v>1</v>
@@ -10156,27 +10179,27 @@
         <v>44852</v>
       </c>
       <c r="AP79" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS79" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT79" t="s">
         <v>60</v>
       </c>
-      <c r="AT79" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>177</v>
       </c>
       <c r="B80" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="13">
-        <v>420</v>
+        <v>430.6</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>24</v>
@@ -10218,10 +10241,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q80" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S80" s="22" t="s">
         <v>25</v>
@@ -10245,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA80" s="23">
         <v>75</v>
@@ -10266,7 +10289,7 @@
         <v>25</v>
       </c>
       <c r="AK80" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL80" s="22">
         <v>1</v>
@@ -10275,27 +10298,27 @@
         <v>44852</v>
       </c>
       <c r="AP80" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS80" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT80" t="s">
         <v>60</v>
       </c>
-      <c r="AT80" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>178</v>
       </c>
       <c r="B81" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" s="13">
-        <v>424</v>
+        <v>434.6</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>25</v>
@@ -10338,7 +10361,7 @@
         <v>41</v>
       </c>
       <c r="T81" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U81" s="24"/>
       <c r="V81" s="12">
@@ -10354,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA81" s="23">
         <v>5</v>
@@ -10375,7 +10398,7 @@
         <v>25</v>
       </c>
       <c r="AK81" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL81" s="22">
         <v>1</v>
@@ -10384,27 +10407,27 @@
         <v>44852</v>
       </c>
       <c r="AP81" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS81" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT81" t="s">
         <v>60</v>
       </c>
-      <c r="AT81" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>179</v>
       </c>
       <c r="B82" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" s="13">
-        <v>426.5</v>
+        <v>437.1</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>41</v>
@@ -10471,7 +10494,7 @@
         <v>45</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC82" s="27" t="s">
         <v>45</v>
@@ -10486,7 +10509,7 @@
         <v>25</v>
       </c>
       <c r="AK82" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL82" s="22">
         <v>1</v>
@@ -10495,27 +10518,27 @@
         <v>44852</v>
       </c>
       <c r="AP82" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT82" t="s">
         <v>60</v>
       </c>
-      <c r="AT82" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>180</v>
       </c>
       <c r="B83" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" s="13">
-        <v>448.5</v>
+        <v>459.1</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>25</v>
@@ -10572,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA83" s="23" t="s">
         <v>45</v>
@@ -10589,7 +10612,7 @@
         <v>25</v>
       </c>
       <c r="AK83" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL83" s="22">
         <v>1</v>
@@ -10598,27 +10621,27 @@
         <v>44852</v>
       </c>
       <c r="AP83" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT83" t="s">
         <v>60</v>
       </c>
-      <c r="AT83" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>181</v>
       </c>
       <c r="B84" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" s="13">
-        <v>453.5</v>
+        <v>464.1</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>41</v>
@@ -10661,7 +10684,7 @@
         <v>25</v>
       </c>
       <c r="T84" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U84" s="24" t="s">
         <v>26</v>
@@ -10679,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA84" s="23">
         <v>3</v>
@@ -10696,7 +10719,7 @@
         <v>25</v>
       </c>
       <c r="AK84" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL84" s="22">
         <v>1</v>
@@ -10705,27 +10728,27 @@
         <v>44852</v>
       </c>
       <c r="AP84" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS84" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT84" t="s">
         <v>60</v>
       </c>
-      <c r="AT84" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>182</v>
       </c>
       <c r="B85" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" s="13">
-        <v>466.5</v>
+        <v>475.1</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>24</v>
@@ -10767,7 +10790,7 @@
         <v>0.6</v>
       </c>
       <c r="Q85" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R85" s="12" t="s">
         <v>41</v>
@@ -10815,7 +10838,7 @@
         <v>25</v>
       </c>
       <c r="AK85" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL85" s="22">
         <v>1</v>
@@ -10824,27 +10847,27 @@
         <v>44852</v>
       </c>
       <c r="AP85" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT85" t="s">
         <v>60</v>
       </c>
-      <c r="AT85" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>183</v>
       </c>
       <c r="B86" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" s="13">
-        <v>472</v>
+        <v>480.6</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>25</v>
@@ -10905,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA86" s="23" t="s">
         <v>45</v>
@@ -10922,7 +10945,7 @@
         <v>46</v>
       </c>
       <c r="AK86" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL86" s="22">
         <v>1</v>
@@ -10931,27 +10954,27 @@
         <v>44852</v>
       </c>
       <c r="AP86" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT86" t="s">
         <v>60</v>
       </c>
-      <c r="AT86" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>184</v>
       </c>
       <c r="B87" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="13">
-        <v>480</v>
+        <v>488.6</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>26</v>
@@ -11018,7 +11041,7 @@
         <v>45</v>
       </c>
       <c r="AB87" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC87" s="27" t="s">
         <v>45</v>
@@ -11033,7 +11056,7 @@
         <v>46</v>
       </c>
       <c r="AK87" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL87" s="22">
         <v>1</v>
@@ -11042,27 +11065,27 @@
         <v>44852</v>
       </c>
       <c r="AP87" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS87" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT87" t="s">
         <v>60</v>
       </c>
-      <c r="AT87" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>185</v>
       </c>
       <c r="B88" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" s="13">
-        <v>492</v>
+        <v>500.6</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>25</v>
@@ -11105,7 +11128,7 @@
         <v>41</v>
       </c>
       <c r="T88" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U88" s="24"/>
       <c r="V88" s="12">
@@ -11138,7 +11161,7 @@
         <v>25</v>
       </c>
       <c r="AK88" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL88" s="22">
         <v>2</v>
@@ -11147,27 +11170,27 @@
         <v>44852</v>
       </c>
       <c r="AP88" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS88" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT88" t="s">
         <v>60</v>
       </c>
-      <c r="AT88" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>186</v>
       </c>
       <c r="B89" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" s="13">
-        <v>501</v>
+        <v>509.6</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>26</v>
@@ -11234,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="AB89" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC89" s="27">
         <v>2</v>
@@ -11249,7 +11272,7 @@
         <v>25</v>
       </c>
       <c r="AK89" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL89" s="22">
         <v>1</v>
@@ -11258,27 +11281,27 @@
         <v>44852</v>
       </c>
       <c r="AP89" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS89" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT89" t="s">
         <v>60</v>
       </c>
-      <c r="AT89" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>187</v>
       </c>
       <c r="B90" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" s="13">
-        <v>512.5</v>
+        <v>521.1</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>25</v>
@@ -11321,7 +11344,7 @@
         <v>41</v>
       </c>
       <c r="T90" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U90" s="24"/>
       <c r="V90" s="12">
@@ -11337,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA90" s="23">
         <v>3</v>
@@ -11358,7 +11381,7 @@
         <v>25</v>
       </c>
       <c r="AK90" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL90" s="22">
         <v>1</v>
@@ -11367,27 +11390,27 @@
         <v>44852</v>
       </c>
       <c r="AP90" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT90" t="s">
         <v>60</v>
       </c>
-      <c r="AT90" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>188</v>
       </c>
       <c r="B91" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="13">
-        <v>530</v>
+        <v>538.6</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>26</v>
@@ -11430,7 +11453,7 @@
         <v>41</v>
       </c>
       <c r="T91" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U91" s="24"/>
       <c r="V91" s="12">
@@ -11467,7 +11490,7 @@
         <v>25</v>
       </c>
       <c r="AK91" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL91" s="22">
         <v>1</v>
@@ -11476,27 +11499,27 @@
         <v>44852</v>
       </c>
       <c r="AP91" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT91" t="s">
         <v>60</v>
       </c>
-      <c r="AT91" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>189</v>
       </c>
       <c r="B92" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="13">
-        <v>548.5</v>
+        <v>557.1</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>41</v>
@@ -11557,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA92" s="23">
         <v>3</v>
@@ -11578,7 +11601,7 @@
         <v>25</v>
       </c>
       <c r="AK92" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL92" s="22">
         <v>1</v>
@@ -11587,27 +11610,27 @@
         <v>44852</v>
       </c>
       <c r="AP92" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS92" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT92" t="s">
         <v>60</v>
       </c>
-      <c r="AT92" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>190</v>
       </c>
       <c r="B93" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" s="13">
-        <v>556.5</v>
+        <v>565.1</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>25</v>
@@ -11650,7 +11673,7 @@
         <v>41</v>
       </c>
       <c r="T93" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U93" s="24"/>
       <c r="V93" s="12">
@@ -11666,13 +11689,13 @@
         <v>0</v>
       </c>
       <c r="Z93" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA93" s="23">
         <v>2</v>
       </c>
       <c r="AB93" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC93" s="27"/>
       <c r="AD93" s="12"/>
@@ -11685,7 +11708,7 @@
         <v>25</v>
       </c>
       <c r="AK93" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL93" s="22">
         <v>1</v>
@@ -11694,27 +11717,27 @@
         <v>44852</v>
       </c>
       <c r="AP93" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS93" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT93" t="s">
         <v>60</v>
       </c>
-      <c r="AT93" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>191</v>
       </c>
       <c r="B94" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" s="13">
-        <v>564.5</v>
+        <v>573.1</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>26</v>
@@ -11757,7 +11780,7 @@
         <v>41</v>
       </c>
       <c r="T94" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U94" s="24"/>
       <c r="V94" s="12">
@@ -11779,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC94" s="27" t="s">
         <v>45</v>
@@ -11794,7 +11817,7 @@
         <v>25</v>
       </c>
       <c r="AK94" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL94" s="22">
         <v>1</v>
@@ -11803,27 +11826,27 @@
         <v>44852</v>
       </c>
       <c r="AP94" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT94" t="s">
         <v>60</v>
       </c>
-      <c r="AT94" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>192</v>
       </c>
       <c r="B95" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" s="13">
-        <v>596</v>
+        <v>605.1</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>24</v>
@@ -11865,7 +11888,7 @@
         <v>0.7</v>
       </c>
       <c r="Q95" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R95" s="12" t="s">
         <v>25</v>
@@ -11898,7 +11921,7 @@
         <v>10</v>
       </c>
       <c r="AB95" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC95" s="27">
         <v>10</v>
@@ -11913,7 +11936,7 @@
         <v>25</v>
       </c>
       <c r="AK95" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL95" s="22">
         <v>1</v>
@@ -11922,27 +11945,27 @@
         <v>44852</v>
       </c>
       <c r="AP95" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS95" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT95" t="s">
         <v>60</v>
       </c>
-      <c r="AT95" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>193</v>
       </c>
       <c r="B96" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" s="13">
-        <v>601</v>
+        <v>610.1</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>25</v>
@@ -11985,7 +12008,7 @@
         <v>41</v>
       </c>
       <c r="T96" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U96" s="24"/>
       <c r="V96" s="12">
@@ -12018,7 +12041,7 @@
         <v>25</v>
       </c>
       <c r="AK96" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL96" s="22">
         <v>1</v>
@@ -12027,27 +12050,27 @@
         <v>44852</v>
       </c>
       <c r="AP96" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS96" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT96" t="s">
         <v>60</v>
       </c>
-      <c r="AT96" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>194</v>
       </c>
       <c r="B97" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="13">
-        <v>611</v>
+        <v>620.1</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>26</v>
@@ -12125,7 +12148,7 @@
         <v>25</v>
       </c>
       <c r="AK97" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL97" s="22">
         <v>1</v>
@@ -12134,27 +12157,27 @@
         <v>44852</v>
       </c>
       <c r="AP97" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS97" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT97" t="s">
         <v>60</v>
       </c>
-      <c r="AT97" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>195</v>
       </c>
       <c r="B98" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="13">
-        <v>622</v>
+        <v>631.1</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>41</v>
@@ -12221,7 +12244,7 @@
         <v>45</v>
       </c>
       <c r="AB98" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC98" s="27">
         <v>2</v>
@@ -12236,7 +12259,7 @@
         <v>25</v>
       </c>
       <c r="AK98" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL98" s="22">
         <v>1</v>
@@ -12245,27 +12268,27 @@
         <v>44852</v>
       </c>
       <c r="AP98" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT98" t="s">
         <v>60</v>
       </c>
-      <c r="AT98" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>196</v>
       </c>
       <c r="B99" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="13">
-        <v>635</v>
+        <v>644.1</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>26</v>
@@ -12308,7 +12331,7 @@
         <v>41</v>
       </c>
       <c r="T99" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U99" s="24"/>
       <c r="V99" s="12">
@@ -12324,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="Z99" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA99" s="23" t="s">
         <v>45</v>
@@ -12345,7 +12368,7 @@
         <v>25</v>
       </c>
       <c r="AK99" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL99" s="22">
         <v>1</v>
@@ -12354,27 +12377,27 @@
         <v>44852</v>
       </c>
       <c r="AP99" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS99" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT99" t="s">
         <v>60</v>
       </c>
-      <c r="AT99" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>197</v>
       </c>
       <c r="B100" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="13">
-        <v>643.5</v>
+        <v>652.6</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>25</v>
@@ -12417,7 +12440,7 @@
         <v>41</v>
       </c>
       <c r="T100" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U100" s="24"/>
       <c r="V100" s="12">
@@ -12450,7 +12473,7 @@
         <v>25</v>
       </c>
       <c r="AK100" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL100" s="22">
         <v>1</v>
@@ -12459,27 +12482,27 @@
         <v>44852</v>
       </c>
       <c r="AP100" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS100" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT100" t="s">
         <v>60</v>
       </c>
-      <c r="AT100" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>198</v>
       </c>
       <c r="B101" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" s="13">
-        <v>650</v>
+        <v>659.1</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>26</v>
@@ -12522,7 +12545,7 @@
         <v>41</v>
       </c>
       <c r="T101" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U101" s="24"/>
       <c r="V101" s="12">
@@ -12555,7 +12578,7 @@
         <v>25</v>
       </c>
       <c r="AK101" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL101" s="22">
         <v>1</v>
@@ -12564,27 +12587,27 @@
         <v>44852</v>
       </c>
       <c r="AP101" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT101" t="s">
         <v>60</v>
       </c>
-      <c r="AT101" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>199</v>
       </c>
       <c r="B102" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" s="13">
-        <v>668</v>
+        <v>677.1</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>25</v>
@@ -12627,7 +12650,7 @@
         <v>41</v>
       </c>
       <c r="T102" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U102" s="24"/>
       <c r="V102" s="12">
@@ -12664,7 +12687,7 @@
         <v>25</v>
       </c>
       <c r="AK102" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL102" s="22">
         <v>1</v>
@@ -12673,19 +12696,19 @@
         <v>44852</v>
       </c>
       <c r="AP102" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS102" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT102" t="s">
         <v>60</v>
       </c>
-      <c r="AT102" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>203</v>
       </c>
@@ -12760,7 +12783,7 @@
         <v>10</v>
       </c>
       <c r="AB103" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC103" s="27" t="s">
         <v>45</v>
@@ -12775,7 +12798,7 @@
         <v>25</v>
       </c>
       <c r="AK103" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL103" s="22">
         <v>1</v>
@@ -12784,22 +12807,22 @@
         <v>44853</v>
       </c>
       <c r="AP103" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS103" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT103" t="s">
         <v>60</v>
       </c>
-      <c r="AT103" t="s">
-        <v>61</v>
-      </c>
       <c r="AU103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>204</v>
       </c>
@@ -12889,7 +12912,7 @@
         <v>25</v>
       </c>
       <c r="AK104" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL104" s="22">
         <v>1</v>
@@ -12898,22 +12921,22 @@
         <v>44853</v>
       </c>
       <c r="AP104" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS104" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT104" t="s">
         <v>60</v>
       </c>
-      <c r="AT104" t="s">
-        <v>61</v>
-      </c>
       <c r="AU104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>205</v>
       </c>
@@ -12964,7 +12987,7 @@
         <v>41</v>
       </c>
       <c r="T105" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U105" s="24"/>
       <c r="V105" s="12">
@@ -12986,7 +13009,7 @@
         <v>45</v>
       </c>
       <c r="AB105" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC105" s="27" t="s">
         <v>45</v>
@@ -13001,7 +13024,7 @@
         <v>25</v>
       </c>
       <c r="AK105" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL105" s="22">
         <v>1</v>
@@ -13010,22 +13033,22 @@
         <v>44853</v>
       </c>
       <c r="AP105" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS105" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT105" t="s">
         <v>60</v>
       </c>
-      <c r="AT105" t="s">
-        <v>61</v>
-      </c>
       <c r="AU105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>206</v>
       </c>
@@ -13115,7 +13138,7 @@
         <v>25</v>
       </c>
       <c r="AK106" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL106" s="22">
         <v>1</v>
@@ -13124,22 +13147,22 @@
         <v>44853</v>
       </c>
       <c r="AP106" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS106" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT106" t="s">
         <v>60</v>
       </c>
-      <c r="AT106" t="s">
-        <v>61</v>
-      </c>
       <c r="AU106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>207</v>
       </c>
@@ -13214,13 +13237,13 @@
         <v>2</v>
       </c>
       <c r="AB107" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC107" s="27" t="s">
         <v>45</v>
       </c>
       <c r="AD107" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE107" s="23" t="s">
         <v>41</v>
@@ -13235,7 +13258,7 @@
         <v>25</v>
       </c>
       <c r="AK107" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL107" s="22">
         <v>1</v>
@@ -13244,22 +13267,22 @@
         <v>44853</v>
       </c>
       <c r="AP107" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS107" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT107" t="s">
         <v>60</v>
       </c>
-      <c r="AT107" t="s">
-        <v>61</v>
-      </c>
       <c r="AU107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>208</v>
       </c>
@@ -13334,7 +13357,7 @@
         <v>3</v>
       </c>
       <c r="AB108" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC108" s="27" t="s">
         <v>45</v>
@@ -13349,7 +13372,7 @@
         <v>25</v>
       </c>
       <c r="AK108" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL108" s="22">
         <v>1</v>
@@ -13358,22 +13381,22 @@
         <v>44853</v>
       </c>
       <c r="AP108" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS108" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT108" t="s">
         <v>60</v>
       </c>
-      <c r="AT108" t="s">
-        <v>61</v>
-      </c>
       <c r="AU108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>209</v>
       </c>
@@ -13463,7 +13486,7 @@
         <v>25</v>
       </c>
       <c r="AK109" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL109" s="22">
         <v>1</v>
@@ -13472,22 +13495,22 @@
         <v>44853</v>
       </c>
       <c r="AP109" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS109" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT109" t="s">
         <v>60</v>
       </c>
-      <c r="AT109" t="s">
-        <v>61</v>
-      </c>
       <c r="AU109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>210</v>
       </c>
@@ -13577,7 +13600,7 @@
         <v>25</v>
       </c>
       <c r="AK110" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL110" s="22">
         <v>1</v>
@@ -13586,22 +13609,22 @@
         <v>44853</v>
       </c>
       <c r="AP110" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT110" t="s">
         <v>60</v>
       </c>
-      <c r="AT110" t="s">
-        <v>61</v>
-      </c>
       <c r="AU110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>211</v>
       </c>
@@ -13609,7 +13632,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="13">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>26</v>
@@ -13652,7 +13675,7 @@
         <v>41</v>
       </c>
       <c r="T111" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U111" s="24"/>
       <c r="V111" s="12">
@@ -13689,7 +13712,7 @@
         <v>25</v>
       </c>
       <c r="AK111" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL111" s="22">
         <v>1</v>
@@ -13698,22 +13721,22 @@
         <v>44853</v>
       </c>
       <c r="AP111" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS111" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT111" t="s">
         <v>60</v>
       </c>
-      <c r="AT111" t="s">
-        <v>61</v>
-      </c>
       <c r="AU111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>212</v>
       </c>
@@ -13721,7 +13744,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="13">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>41</v>
@@ -13761,7 +13784,7 @@
         <v>25</v>
       </c>
       <c r="S112" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T112" s="23" t="s">
         <v>43</v>
@@ -13788,7 +13811,7 @@
         <v>2</v>
       </c>
       <c r="AB112" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC112" s="27" t="s">
         <v>45</v>
@@ -13803,7 +13826,7 @@
         <v>25</v>
       </c>
       <c r="AK112" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL112" s="22">
         <v>1</v>
@@ -13812,22 +13835,22 @@
         <v>44853</v>
       </c>
       <c r="AP112" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS112" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT112" t="s">
         <v>60</v>
       </c>
-      <c r="AT112" t="s">
-        <v>61</v>
-      </c>
       <c r="AU112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>213</v>
       </c>
@@ -13835,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="13">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>25</v>
@@ -13902,13 +13925,13 @@
         <v>5</v>
       </c>
       <c r="AB113" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC113" s="27">
         <v>3</v>
       </c>
       <c r="AD113" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE113" s="23" t="s">
         <v>41</v>
@@ -13923,34 +13946,34 @@
         <v>25</v>
       </c>
       <c r="AK113" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL113" s="22">
         <v>1</v>
       </c>
       <c r="AN113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO113" s="40">
         <v>44853</v>
       </c>
       <c r="AP113" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS113" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT113" t="s">
         <v>60</v>
       </c>
-      <c r="AT113" t="s">
-        <v>61</v>
-      </c>
       <c r="AU113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>213</v>
       </c>
@@ -13958,7 +13981,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="13">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>26</v>
@@ -14001,7 +14024,7 @@
         <v>41</v>
       </c>
       <c r="T114" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U114" s="24"/>
       <c r="V114" s="12">
@@ -14023,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="AB114" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC114" s="27" t="s">
         <v>45</v>
@@ -14038,7 +14061,7 @@
         <v>25</v>
       </c>
       <c r="AK114" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL114" s="22">
         <v>1</v>
@@ -14047,22 +14070,22 @@
         <v>44853</v>
       </c>
       <c r="AP114" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS114" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT114" t="s">
         <v>60</v>
       </c>
-      <c r="AT114" t="s">
-        <v>61</v>
-      </c>
       <c r="AU114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>214</v>
       </c>
@@ -14070,7 +14093,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="13">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>41</v>
@@ -14137,7 +14160,7 @@
         <v>45</v>
       </c>
       <c r="AB115" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC115" s="27" t="s">
         <v>45</v>
@@ -14152,7 +14175,7 @@
         <v>25</v>
       </c>
       <c r="AK115" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL115" s="22">
         <v>1</v>
@@ -14161,22 +14184,22 @@
         <v>44853</v>
       </c>
       <c r="AP115" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS115" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT115" t="s">
         <v>60</v>
       </c>
-      <c r="AT115" t="s">
-        <v>61</v>
-      </c>
       <c r="AU115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>215</v>
       </c>
@@ -14184,7 +14207,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="13">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>25</v>
@@ -14224,10 +14247,10 @@
         <v>41</v>
       </c>
       <c r="S116" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T116" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U116" s="24"/>
       <c r="V116" s="12">
@@ -14249,7 +14272,7 @@
         <v>20</v>
       </c>
       <c r="AB116" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC116" s="27">
         <v>15</v>
@@ -14264,34 +14287,34 @@
         <v>25</v>
       </c>
       <c r="AK116" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL116" s="22">
         <v>1</v>
       </c>
       <c r="AN116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO116" s="40">
         <v>44853</v>
       </c>
       <c r="AP116" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS116" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT116" t="s">
         <v>60</v>
       </c>
-      <c r="AT116" t="s">
-        <v>61</v>
-      </c>
       <c r="AU116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>216</v>
       </c>
@@ -14299,7 +14322,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="13">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>24</v>
@@ -14341,16 +14364,16 @@
         <v>0.9</v>
       </c>
       <c r="Q117" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R117" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S117" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T117" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="T117" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="U117" s="24" t="s">
         <v>26</v>
@@ -14368,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA117" s="23">
         <v>40</v>
@@ -14389,34 +14412,34 @@
         <v>25</v>
       </c>
       <c r="AK117" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL117" s="22">
         <v>1</v>
       </c>
       <c r="AN117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AO117" s="40">
         <v>44853</v>
       </c>
       <c r="AP117" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS117" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT117" t="s">
         <v>60</v>
       </c>
-      <c r="AT117" t="s">
-        <v>61</v>
-      </c>
       <c r="AU117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>217</v>
       </c>
@@ -14424,7 +14447,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="13">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>41</v>
@@ -14464,7 +14487,7 @@
         <v>41</v>
       </c>
       <c r="S118" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T118" s="23" t="s">
         <v>43</v>
@@ -14506,7 +14529,7 @@
         <v>25</v>
       </c>
       <c r="AK118" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL118" s="22">
         <v>1</v>
@@ -14515,22 +14538,22 @@
         <v>44853</v>
       </c>
       <c r="AP118" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS118" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT118" t="s">
         <v>60</v>
       </c>
-      <c r="AT118" t="s">
-        <v>61</v>
-      </c>
       <c r="AU118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>218</v>
       </c>
@@ -14538,7 +14561,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="13">
-        <v>122.5</v>
+        <v>125.5</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>24</v>
@@ -14580,7 +14603,7 @@
         <v>0.5</v>
       </c>
       <c r="Q119" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R119" s="12" t="s">
         <v>41</v>
@@ -14589,7 +14612,7 @@
         <v>25</v>
       </c>
       <c r="T119" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U119" s="24" t="s">
         <v>26</v>
@@ -14613,7 +14636,7 @@
         <v>40</v>
       </c>
       <c r="AB119" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC119" s="27">
         <v>10</v>
@@ -14628,34 +14651,34 @@
         <v>25</v>
       </c>
       <c r="AK119" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL119" s="22">
         <v>1</v>
       </c>
       <c r="AN119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO119" s="40">
         <v>44853</v>
       </c>
       <c r="AP119" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS119" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT119" t="s">
         <v>60</v>
       </c>
-      <c r="AT119" t="s">
-        <v>61</v>
-      </c>
       <c r="AU119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>219</v>
       </c>
@@ -14663,7 +14686,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="13">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>25</v>
@@ -14745,7 +14768,7 @@
         <v>25</v>
       </c>
       <c r="AK120" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL120" s="22">
         <v>1</v>
@@ -14754,22 +14777,22 @@
         <v>44853</v>
       </c>
       <c r="AP120" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS120" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT120" t="s">
         <v>60</v>
       </c>
-      <c r="AT120" t="s">
-        <v>61</v>
-      </c>
       <c r="AU120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>220</v>
       </c>
@@ -14777,7 +14800,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="13">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>26</v>
@@ -14820,7 +14843,7 @@
         <v>41</v>
       </c>
       <c r="T121" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U121" s="24"/>
       <c r="V121" s="12">
@@ -14857,7 +14880,7 @@
         <v>25</v>
       </c>
       <c r="AK121" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL121" s="22">
         <v>1</v>
@@ -14866,22 +14889,22 @@
         <v>44853</v>
       </c>
       <c r="AP121" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS121" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT121" t="s">
         <v>60</v>
       </c>
-      <c r="AT121" t="s">
-        <v>61</v>
-      </c>
       <c r="AU121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>221</v>
       </c>
@@ -14889,7 +14912,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="13">
-        <v>155.5</v>
+        <v>158.5</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>25</v>
@@ -14932,7 +14955,7 @@
         <v>41</v>
       </c>
       <c r="T122" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U122" s="24"/>
       <c r="V122" s="12">
@@ -14969,7 +14992,7 @@
         <v>25</v>
       </c>
       <c r="AK122" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL122" s="22">
         <v>1</v>
@@ -14978,22 +15001,22 @@
         <v>44853</v>
       </c>
       <c r="AP122" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS122" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT122" t="s">
         <v>60</v>
       </c>
-      <c r="AT122" t="s">
-        <v>61</v>
-      </c>
       <c r="AU122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>222</v>
       </c>
@@ -15001,7 +15024,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="13">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>26</v>
@@ -15044,7 +15067,7 @@
         <v>41</v>
       </c>
       <c r="T123" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U123" s="24"/>
       <c r="V123" s="12">
@@ -15081,7 +15104,7 @@
         <v>25</v>
       </c>
       <c r="AK123" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL123" s="22">
         <v>1</v>
@@ -15090,22 +15113,22 @@
         <v>44853</v>
       </c>
       <c r="AP123" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS123" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT123" t="s">
         <v>60</v>
       </c>
-      <c r="AT123" t="s">
-        <v>61</v>
-      </c>
       <c r="AU123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>223</v>
       </c>
@@ -15113,7 +15136,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="13">
-        <v>180.5</v>
+        <v>182.5</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>25</v>
@@ -15156,7 +15179,7 @@
         <v>42</v>
       </c>
       <c r="T124" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U124" s="24"/>
       <c r="V124" s="12">
@@ -15193,7 +15216,7 @@
         <v>25</v>
       </c>
       <c r="AK124" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL124" s="22">
         <v>1</v>
@@ -15202,22 +15225,22 @@
         <v>44853</v>
       </c>
       <c r="AP124" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS124" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT124" t="s">
         <v>60</v>
       </c>
-      <c r="AT124" t="s">
-        <v>61</v>
-      </c>
       <c r="AU124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>224</v>
       </c>
@@ -15225,7 +15248,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="13">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>26</v>
@@ -15307,7 +15330,7 @@
         <v>25</v>
       </c>
       <c r="AK125" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL125" s="22">
         <v>1</v>
@@ -15316,22 +15339,22 @@
         <v>44853</v>
       </c>
       <c r="AP125" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS125" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT125" t="s">
         <v>60</v>
       </c>
-      <c r="AT125" t="s">
-        <v>61</v>
-      </c>
       <c r="AU125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>225</v>
       </c>
@@ -15339,7 +15362,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="13">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>25</v>
@@ -15382,7 +15405,7 @@
         <v>41</v>
       </c>
       <c r="T126" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U126" s="24"/>
       <c r="V126" s="12">
@@ -15404,7 +15427,7 @@
         <v>5</v>
       </c>
       <c r="AB126" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC126" s="27" t="s">
         <v>45</v>
@@ -15419,7 +15442,7 @@
         <v>25</v>
       </c>
       <c r="AK126" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL126" s="22">
         <v>1</v>
@@ -15428,22 +15451,22 @@
         <v>44854</v>
       </c>
       <c r="AP126" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS126" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT126" t="s">
         <v>60</v>
       </c>
-      <c r="AT126" t="s">
-        <v>61</v>
-      </c>
       <c r="AU126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>226</v>
       </c>
@@ -15451,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="13">
-        <v>217.5</v>
+        <v>219.5</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>26</v>
@@ -15524,7 +15547,7 @@
         <v>45</v>
       </c>
       <c r="AD127" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE127" s="23"/>
       <c r="AF127" s="22"/>
@@ -15535,7 +15558,7 @@
         <v>25</v>
       </c>
       <c r="AK127" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL127" s="22">
         <v>1</v>
@@ -15544,22 +15567,22 @@
         <v>44853</v>
       </c>
       <c r="AP127" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR127" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS127" t="s">
         <v>59</v>
       </c>
-      <c r="AS127" t="s">
+      <c r="AT127" t="s">
         <v>60</v>
       </c>
-      <c r="AT127" t="s">
-        <v>61</v>
-      </c>
       <c r="AU127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>227</v>
       </c>
@@ -15567,7 +15590,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="13">
-        <v>228.5</v>
+        <v>230.5</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>25</v>
@@ -15649,7 +15672,7 @@
         <v>25</v>
       </c>
       <c r="AK128" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL128" s="22">
         <v>1</v>
@@ -15658,22 +15681,22 @@
         <v>44853</v>
       </c>
       <c r="AP128" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR128" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS128" t="s">
         <v>59</v>
       </c>
-      <c r="AS128" t="s">
+      <c r="AT128" t="s">
         <v>60</v>
       </c>
-      <c r="AT128" t="s">
-        <v>61</v>
-      </c>
       <c r="AU128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>228</v>
       </c>
@@ -15681,7 +15704,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="13">
-        <v>242.5</v>
+        <v>244.5</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>26</v>
@@ -15721,10 +15744,10 @@
         <v>25</v>
       </c>
       <c r="S129" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T129" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U129" s="24"/>
       <c r="V129" s="12">
@@ -15757,7 +15780,7 @@
         <v>25</v>
       </c>
       <c r="AK129" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL129" s="22">
         <v>1</v>
@@ -15766,22 +15789,22 @@
         <v>44853</v>
       </c>
       <c r="AP129" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS129" t="s">
         <v>59</v>
       </c>
-      <c r="AS129" t="s">
+      <c r="AT129" t="s">
         <v>60</v>
       </c>
-      <c r="AT129" t="s">
-        <v>61</v>
-      </c>
       <c r="AU129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>229</v>
       </c>
@@ -15789,7 +15812,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="13">
-        <v>247.5</v>
+        <v>249.5</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>25</v>
@@ -15871,7 +15894,7 @@
         <v>25</v>
       </c>
       <c r="AK130" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL130" s="22">
         <v>1</v>
@@ -15880,22 +15903,22 @@
         <v>44853</v>
       </c>
       <c r="AP130" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR130" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS130" t="s">
         <v>59</v>
       </c>
-      <c r="AS130" t="s">
+      <c r="AT130" t="s">
         <v>60</v>
       </c>
-      <c r="AT130" t="s">
-        <v>61</v>
-      </c>
       <c r="AU130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>230</v>
       </c>
@@ -15903,7 +15926,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="13">
-        <v>260.5</v>
+        <v>262.5</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>24</v>
@@ -15945,7 +15968,7 @@
         <v>0.65</v>
       </c>
       <c r="Q131" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R131" s="12" t="s">
         <v>25</v>
@@ -15978,7 +16001,7 @@
         <v>5</v>
       </c>
       <c r="AB131" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC131" s="27" t="s">
         <v>45</v>
@@ -15993,35 +16016,41 @@
         <v>25</v>
       </c>
       <c r="AK131" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL131" s="22">
         <v>1</v>
       </c>
       <c r="AN131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO131" s="40">
         <v>44853</v>
       </c>
       <c r="AP131" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR131" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS131" t="s">
         <v>59</v>
       </c>
-      <c r="AS131" t="s">
+      <c r="AT131" t="s">
         <v>60</v>
       </c>
-      <c r="AT131" t="s">
-        <v>61</v>
-      </c>
       <c r="AU131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="I4:K4"/>
@@ -16035,12 +16064,7 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AM3:AV3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airvine/Projects/repo/fish_passage_elk_2022_reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D54D4-9379-6E42-8869-898FC4427C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4BE91-0AB0-5040-A455-20185417CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38060" yWindow="0" windowWidth="35340" windowHeight="20740" activeTab="1" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="113">
   <si>
     <t xml:space="preserve">Mean Depth </t>
   </si>
@@ -352,9 +352,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>waypoint_start</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>utm_northing_end</t>
+  </si>
+  <si>
+    <t>Reach Number</t>
   </si>
 </sst>
 </file>
@@ -957,16 +957,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,6 +1015,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1347,73 +1347,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="47" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="47" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="64" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="47" t="s">
+      <c r="X1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="47" t="s">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1443,11 +1443,11 @@
       <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
@@ -1472,11 +1472,11 @@
       <c r="T2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="65"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="64"/>
       <c r="X2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1507,9 +1507,9 @@
       <c r="AG2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="59"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="58"/>
       <c r="AK2" s="6" t="s">
         <v>10</v>
       </c>
@@ -14213,6 +14213,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AK1:AM1"/>
@@ -14227,7 +14228,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="AN1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14236,302 +14236,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8552CE-AA72-E441-B112-FEC1FC56907B}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.83203125"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="21" width="8.83203125"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.83203125"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="22" width="8.83203125"/>
+    <col min="23" max="23" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>74</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>98</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>113</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>649996</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5531958</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>649811</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5531776</v>
       </c>
-      <c r="J3" s="39">
+      <c r="K3" s="39">
         <v>44840</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>114</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>138</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>649409</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5531694</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>649110</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5531745</v>
       </c>
-      <c r="J4" s="39">
+      <c r="K4" s="39">
         <v>44841</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>56</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.5</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>650985</v>
+      </c>
+      <c r="H5">
+        <v>5532436</v>
+      </c>
+      <c r="I5">
+        <v>650516</v>
+      </c>
+      <c r="J5">
+        <v>5532210</v>
+      </c>
+      <c r="K5" s="39">
+        <v>44851</v>
+      </c>
+      <c r="L5" s="39">
+        <v>44852</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>140</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>650985</v>
-      </c>
-      <c r="G5">
-        <v>5532436</v>
-      </c>
-      <c r="H5">
-        <v>650516</v>
-      </c>
-      <c r="I5">
-        <v>5532210</v>
-      </c>
-      <c r="J5" s="39">
-        <v>44851</v>
-      </c>
-      <c r="K5" s="39">
-        <v>44852</v>
-      </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>203</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>231</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>647948</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5532684</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>647938</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5532927</v>
       </c>
-      <c r="J6" s="39">
+      <c r="K6" s="39">
         <v>44853</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airvine/Projects/repo/fish_passage_elk_2022_reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4BE91-0AB0-5040-A455-20185417CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB3D18B-D0C2-ED48-AB6A-E201E373AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38060" yWindow="0" windowWidth="35340" windowHeight="20740" activeTab="1" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
@@ -957,6 +957,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,12 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,73 +1347,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="48" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="48" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="63" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="48" t="s">
+      <c r="X1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="65" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="66"/>
+      <c r="AO1" s="47"/>
     </row>
     <row r="2" spans="1:41" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1443,11 +1443,11 @@
       <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
@@ -1472,11 +1472,11 @@
       <c r="T2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="64"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="66"/>
       <c r="X2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1507,9 +1507,9 @@
       <c r="AG2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="60"/>
       <c r="AK2" s="6" t="s">
         <v>10</v>
       </c>
@@ -14238,8 +14238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8552CE-AA72-E441-B112-FEC1FC56907B}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14260,35 +14260,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -14365,6 +14365,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" s="38" t="s">
         <v>57</v>
       </c>
@@ -14406,6 +14409,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" s="38" t="s">
         <v>57</v>
       </c>
@@ -14448,6 +14454,9 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -14493,6 +14502,9 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>57</v>

--- a/data/FHAP.xlsx
+++ b/data/FHAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airvine/Projects/repo/fish_passage_elk_2022_reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB3D18B-D0C2-ED48-AB6A-E201E373AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D41C40-65BA-4B47-A32C-9DEE7DCAB324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38060" yWindow="0" windowWidth="35340" windowHeight="20740" activeTab="1" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
+    <workbookView xWindow="-75760" yWindow="-820" windowWidth="35340" windowHeight="20740" activeTab="1" xr2:uid="{5A2D0570-DCDD-4C61-94AA-A1D7EDFE5E28}"/>
   </bookViews>
   <sheets>
     <sheet name="hab_units" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="114">
   <si>
     <t xml:space="preserve">Mean Depth </t>
   </si>
@@ -370,9 +370,6 @@
     <t>Discharge Estimated</t>
   </si>
   <si>
-    <t>Start approximately  Elk River</t>
-  </si>
-  <si>
     <t>utm_easting</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>Reach Number</t>
+  </si>
+  <si>
+    <t>Start of site is where Weigert almost touches Elk River then redirects to the south (approximately 210m upstream of mapped confluence).</t>
+  </si>
+  <si>
+    <t>Hiked in from road to unconfined low gradient area.</t>
   </si>
 </sst>
 </file>
@@ -14239,7 +14242,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14295,7 +14298,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -14310,16 +14313,16 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>105</v>
@@ -14496,7 +14499,7 @@
         <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -14541,6 +14544,9 @@
       </c>
       <c r="P6" t="s">
         <v>73</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
